--- a/SAV/output/website/SAV_BBpct_LMEresults_All.xlsx
+++ b/SAV/output/website/SAV_BBpct_LMEresults_All.xlsx
@@ -10005,13 +10005,13 @@
         <v>1</v>
       </c>
       <c r="M194" t="n">
-        <v>84.4240525929707</v>
+        <v>84.4240875767503</v>
       </c>
       <c r="N194" t="n">
-        <v>-2.62425693324902</v>
+        <v>-2.62425821800902</v>
       </c>
       <c r="O194" t="n">
-        <v>0.0740357901071176</v>
+        <v>0.0740365212949048</v>
       </c>
       <c r="P194" t="s">
         <v>23</v>
@@ -10025,28 +10025,28 @@
         <v>114</v>
       </c>
       <c r="C195" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D195" t="s">
         <v>18</v>
       </c>
       <c r="E195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F195" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="G195" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="H195" t="n">
-        <v>133</v>
+        <v>460</v>
       </c>
       <c r="I195" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J195" t="n">
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="K195" t="n">
         <v>2023</v>
@@ -10055,13 +10055,13 @@
         <v>1</v>
       </c>
       <c r="M195" t="n">
-        <v>84.4240875767503</v>
+        <v>11.9869803993408</v>
       </c>
       <c r="N195" t="n">
-        <v>-2.62425821800902</v>
+        <v>0.27052871964274</v>
       </c>
       <c r="O195" t="n">
-        <v>0.0740365212949048</v>
+        <v>0.485492239750769</v>
       </c>
       <c r="P195" t="s">
         <v>23</v>
@@ -10075,28 +10075,28 @@
         <v>114</v>
       </c>
       <c r="C196" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D196" t="s">
         <v>18</v>
       </c>
       <c r="E196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F196" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="G196" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="H196" t="n">
-        <v>460</v>
+        <v>76</v>
       </c>
       <c r="I196" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J196" t="n">
-        <v>2000</v>
+        <v>2016</v>
       </c>
       <c r="K196" t="n">
         <v>2023</v>
@@ -10104,17 +10104,11 @@
       <c r="L196" t="b">
         <v>1</v>
       </c>
-      <c r="M196" t="n">
-        <v>11.9869804005955</v>
-      </c>
-      <c r="N196" t="n">
-        <v>0.270528719596189</v>
-      </c>
-      <c r="O196" t="n">
-        <v>0.485492239588718</v>
-      </c>
+      <c r="M196"/>
+      <c r="N196"/>
+      <c r="O196"/>
       <c r="P196" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="197">
@@ -10125,7 +10119,7 @@
         <v>114</v>
       </c>
       <c r="C197" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D197" t="s">
         <v>18</v>
@@ -10140,10 +10134,10 @@
         <v>116</v>
       </c>
       <c r="H197" t="n">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="I197" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J197" t="n">
         <v>2000</v>
@@ -10155,13 +10149,13 @@
         <v>1</v>
       </c>
       <c r="M197" t="n">
-        <v>11.9869803993408</v>
+        <v>4.17288209344542</v>
       </c>
       <c r="N197" t="n">
-        <v>0.27052871964274</v>
+        <v>-0.151399197205583</v>
       </c>
       <c r="O197" t="n">
-        <v>0.485492239750769</v>
+        <v>0.819587742428702</v>
       </c>
       <c r="P197" t="s">
         <v>23</v>
@@ -10175,28 +10169,28 @@
         <v>114</v>
       </c>
       <c r="C198" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D198" t="s">
         <v>18</v>
       </c>
       <c r="E198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F198" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="G198" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="H198" t="n">
-        <v>76</v>
+        <v>841</v>
       </c>
       <c r="I198" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J198" t="n">
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="K198" t="n">
         <v>2023</v>
@@ -10204,11 +10198,17 @@
       <c r="L198" t="b">
         <v>1</v>
       </c>
-      <c r="M198"/>
-      <c r="N198"/>
-      <c r="O198"/>
+      <c r="M198" t="n">
+        <v>27.0389702137899</v>
+      </c>
+      <c r="N198" t="n">
+        <v>1.06249136556588</v>
+      </c>
+      <c r="O198" t="n">
+        <v>0.131535963423934</v>
+      </c>
       <c r="P198" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="199">
@@ -10219,43 +10219,43 @@
         <v>114</v>
       </c>
       <c r="C199" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D199" t="s">
         <v>18</v>
       </c>
       <c r="E199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F199" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G199" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H199" t="n">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="I199" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J199" t="n">
         <v>2000</v>
       </c>
       <c r="K199" t="n">
-        <v>2023</v>
+        <v>2007</v>
       </c>
       <c r="L199" t="b">
         <v>1</v>
       </c>
       <c r="M199" t="n">
-        <v>4.17290189953575</v>
+        <v>88.135881202134</v>
       </c>
       <c r="N199" t="n">
-        <v>-0.151398517909744</v>
+        <v>-1.52267831398093</v>
       </c>
       <c r="O199" t="n">
-        <v>0.81958861886694</v>
+        <v>0.150234764324765</v>
       </c>
       <c r="P199" t="s">
         <v>23</v>
@@ -10263,34 +10263,34 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B200" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C200" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D200" t="s">
         <v>18</v>
       </c>
       <c r="E200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="G200" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="H200" t="n">
-        <v>432</v>
+        <v>243</v>
       </c>
       <c r="I200" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J200" t="n">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="K200" t="n">
         <v>2023</v>
@@ -10299,13 +10299,13 @@
         <v>1</v>
       </c>
       <c r="M200" t="n">
-        <v>4.17288209344542</v>
+        <v>9.61203743135621</v>
       </c>
       <c r="N200" t="n">
-        <v>-0.151399197205583</v>
+        <v>0.083801251505233</v>
       </c>
       <c r="O200" t="n">
-        <v>0.819587742428702</v>
+        <v>0.831389753865606</v>
       </c>
       <c r="P200" t="s">
         <v>23</v>
@@ -10313,34 +10313,34 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B201" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C201" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D201" t="s">
         <v>18</v>
       </c>
       <c r="E201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F201" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="G201" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="H201" t="n">
-        <v>841</v>
+        <v>53</v>
       </c>
       <c r="I201" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J201" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="K201" t="n">
         <v>2023</v>
@@ -10349,13 +10349,13 @@
         <v>1</v>
       </c>
       <c r="M201" t="n">
-        <v>27.0389702137899</v>
+        <v>48.4483227965307</v>
       </c>
       <c r="N201" t="n">
-        <v>1.06249136556588</v>
+        <v>-0.491452101473701</v>
       </c>
       <c r="O201" t="n">
-        <v>0.131535963423934</v>
+        <v>0.503221346939231</v>
       </c>
       <c r="P201" t="s">
         <v>23</v>
@@ -10363,63 +10363,57 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B202" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C202" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D202" t="s">
         <v>18</v>
       </c>
       <c r="E202" t="n">
+        <v>1</v>
+      </c>
+      <c r="F202" t="s">
+        <v>36</v>
+      </c>
+      <c r="G202" t="s">
+        <v>37</v>
+      </c>
+      <c r="H202" t="n">
+        <v>21</v>
+      </c>
+      <c r="I202" t="n">
         <v>2</v>
       </c>
-      <c r="F202" t="s">
-        <v>115</v>
-      </c>
-      <c r="G202" t="s">
-        <v>116</v>
-      </c>
-      <c r="H202" t="n">
-        <v>841</v>
-      </c>
-      <c r="I202" t="n">
-        <v>15</v>
-      </c>
       <c r="J202" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="K202" t="n">
         <v>2023</v>
       </c>
       <c r="L202" t="b">
-        <v>1</v>
-      </c>
-      <c r="M202" t="n">
-        <v>27.0389721308422</v>
-      </c>
-      <c r="N202" t="n">
-        <v>1.06249128763984</v>
-      </c>
-      <c r="O202" t="n">
-        <v>0.131535961470581</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M202"/>
+      <c r="N202"/>
+      <c r="O202"/>
       <c r="P202" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B203" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C203" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D203" t="s">
         <v>18</v>
@@ -10428,34 +10422,34 @@
         <v>1</v>
       </c>
       <c r="F203" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="H203" t="n">
-        <v>413</v>
+        <v>90</v>
       </c>
       <c r="I203" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J203" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="K203" t="n">
-        <v>2007</v>
+        <v>2023</v>
       </c>
       <c r="L203" t="b">
         <v>1</v>
       </c>
       <c r="M203" t="n">
-        <v>88.1359321457827</v>
+        <v>54.1971893664919</v>
       </c>
       <c r="N203" t="n">
-        <v>-1.52268347944976</v>
+        <v>-0.898590661613937</v>
       </c>
       <c r="O203" t="n">
-        <v>0.150223160603143</v>
+        <v>0.256693517861474</v>
       </c>
       <c r="P203" t="s">
         <v>23</v>
@@ -10463,13 +10457,13 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B204" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C204" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D204" t="s">
         <v>18</v>
@@ -10478,34 +10472,34 @@
         <v>1</v>
       </c>
       <c r="F204" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="G204" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="H204" t="n">
-        <v>413</v>
+        <v>865</v>
       </c>
       <c r="I204" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J204" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="K204" t="n">
-        <v>2007</v>
+        <v>2023</v>
       </c>
       <c r="L204" t="b">
         <v>1</v>
       </c>
       <c r="M204" t="n">
-        <v>88.135881202134</v>
+        <v>62.3803683758874</v>
       </c>
       <c r="N204" t="n">
-        <v>-1.52267831398093</v>
+        <v>-0.142093117357641</v>
       </c>
       <c r="O204" t="n">
-        <v>0.150234764324765</v>
+        <v>0.687476157395656</v>
       </c>
       <c r="P204" t="s">
         <v>23</v>
@@ -10513,10 +10507,10 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B205" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C205" t="s">
         <v>17</v>
@@ -10528,34 +10522,34 @@
         <v>1</v>
       </c>
       <c r="F205" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G205" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H205" t="n">
-        <v>243</v>
+        <v>1200</v>
       </c>
       <c r="I205" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J205" t="n">
-        <v>2006</v>
+        <v>1997</v>
       </c>
       <c r="K205" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L205" t="b">
         <v>1</v>
       </c>
       <c r="M205" t="n">
-        <v>9.61203743135621</v>
+        <v>17.6000324086398</v>
       </c>
       <c r="N205" t="n">
-        <v>0.083801251505233</v>
+        <v>-0.177237750670174</v>
       </c>
       <c r="O205" t="n">
-        <v>0.831389753865606</v>
+        <v>0.214527791747208</v>
       </c>
       <c r="P205" t="s">
         <v>23</v>
@@ -10563,10 +10557,10 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B206" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C206" t="s">
         <v>22</v>
@@ -10578,34 +10572,34 @@
         <v>1</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G206" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H206" t="n">
-        <v>53</v>
+        <v>1488</v>
       </c>
       <c r="I206" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="J206" t="n">
-        <v>2005</v>
+        <v>1997</v>
       </c>
       <c r="K206" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L206" t="b">
         <v>1</v>
       </c>
       <c r="M206" t="n">
-        <v>48.4483227965307</v>
+        <v>24.3154629849416</v>
       </c>
       <c r="N206" t="n">
-        <v>-0.491452101473701</v>
+        <v>-0.107834394735686</v>
       </c>
       <c r="O206" t="n">
-        <v>0.503221346939231</v>
+        <v>0.554320609923393</v>
       </c>
       <c r="P206" t="s">
         <v>23</v>
@@ -10613,13 +10607,13 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B207" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C207" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D207" t="s">
         <v>18</v>
@@ -10628,42 +10622,48 @@
         <v>1</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G207" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H207" t="n">
-        <v>21</v>
+        <v>468</v>
       </c>
       <c r="I207" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="J207" t="n">
-        <v>2005</v>
+        <v>1997</v>
       </c>
       <c r="K207" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L207" t="b">
-        <v>0</v>
-      </c>
-      <c r="M207"/>
-      <c r="N207"/>
-      <c r="O207"/>
+        <v>1</v>
+      </c>
+      <c r="M207" t="n">
+        <v>63.8845914773122</v>
+      </c>
+      <c r="N207" t="n">
+        <v>-1.756230414883</v>
+      </c>
+      <c r="O207" t="n">
+        <v>0.0916255144072397</v>
+      </c>
       <c r="P207" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B208" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C208" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D208" t="s">
         <v>18</v>
@@ -10672,48 +10672,42 @@
         <v>1</v>
       </c>
       <c r="F208" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G208" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H208" t="n">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="I208" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J208" t="n">
-        <v>2005</v>
+        <v>1997</v>
       </c>
       <c r="K208" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="L208" t="b">
         <v>1</v>
       </c>
-      <c r="M208" t="n">
-        <v>54.1971893664919</v>
-      </c>
-      <c r="N208" t="n">
-        <v>-0.898590661613937</v>
-      </c>
-      <c r="O208" t="n">
-        <v>0.256693517861474</v>
-      </c>
+      <c r="M208"/>
+      <c r="N208"/>
+      <c r="O208"/>
       <c r="P208" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B209" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C209" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D209" t="s">
         <v>18</v>
@@ -10722,34 +10716,34 @@
         <v>1</v>
       </c>
       <c r="F209" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G209" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H209" t="n">
-        <v>865</v>
+        <v>142</v>
       </c>
       <c r="I209" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J209" t="n">
-        <v>2005</v>
+        <v>1997</v>
       </c>
       <c r="K209" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L209" t="b">
         <v>1</v>
       </c>
       <c r="M209" t="n">
-        <v>62.3803683758874</v>
+        <v>23.3866454027794</v>
       </c>
       <c r="N209" t="n">
-        <v>-0.142093117357641</v>
+        <v>-0.133993639774481</v>
       </c>
       <c r="O209" t="n">
-        <v>0.687476157395656</v>
+        <v>0.724482761673577</v>
       </c>
       <c r="P209" t="s">
         <v>23</v>
@@ -10763,7 +10757,7 @@
         <v>120</v>
       </c>
       <c r="C210" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D210" t="s">
         <v>18</v>
@@ -10778,7 +10772,7 @@
         <v>52</v>
       </c>
       <c r="H210" t="n">
-        <v>1200</v>
+        <v>722</v>
       </c>
       <c r="I210" t="n">
         <v>28</v>
@@ -10793,13 +10787,13 @@
         <v>1</v>
       </c>
       <c r="M210" t="n">
-        <v>17.6000324086398</v>
+        <v>17.2242004763788</v>
       </c>
       <c r="N210" t="n">
-        <v>-0.177237750670174</v>
+        <v>-0.0625775302178686</v>
       </c>
       <c r="O210" t="n">
-        <v>0.214527791747208</v>
+        <v>0.744513990778776</v>
       </c>
       <c r="P210" t="s">
         <v>23</v>
@@ -10813,7 +10807,7 @@
         <v>120</v>
       </c>
       <c r="C211" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D211" t="s">
         <v>18</v>
@@ -10828,7 +10822,7 @@
         <v>52</v>
       </c>
       <c r="H211" t="n">
-        <v>1488</v>
+        <v>3169</v>
       </c>
       <c r="I211" t="n">
         <v>28</v>
@@ -10843,13 +10837,13 @@
         <v>1</v>
       </c>
       <c r="M211" t="n">
-        <v>24.3154629849416</v>
+        <v>34.9836008250607</v>
       </c>
       <c r="N211" t="n">
-        <v>-0.107834394735686</v>
+        <v>-0.111791711877384</v>
       </c>
       <c r="O211" t="n">
-        <v>0.554320609923393</v>
+        <v>0.468476639281231</v>
       </c>
       <c r="P211" t="s">
         <v>23</v>
@@ -10857,13 +10851,13 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B212" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C212" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D212" t="s">
         <v>18</v>
@@ -10872,48 +10866,42 @@
         <v>1</v>
       </c>
       <c r="F212" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G212" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H212" t="n">
-        <v>468</v>
+        <v>13</v>
       </c>
       <c r="I212" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="J212" t="n">
-        <v>1997</v>
+        <v>2018</v>
       </c>
       <c r="K212" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="L212" t="b">
-        <v>1</v>
-      </c>
-      <c r="M212" t="n">
-        <v>63.8845914773122</v>
-      </c>
-      <c r="N212" t="n">
-        <v>-1.756230414883</v>
-      </c>
-      <c r="O212" t="n">
-        <v>0.0916255144072397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M212"/>
+      <c r="N212"/>
+      <c r="O212"/>
       <c r="P212" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B213" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C213" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D213" t="s">
         <v>18</v>
@@ -10922,42 +10910,48 @@
         <v>1</v>
       </c>
       <c r="F213" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G213" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H213" t="n">
-        <v>21</v>
+        <v>731</v>
       </c>
       <c r="I213" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="J213" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="K213" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="L213" t="b">
         <v>1</v>
       </c>
-      <c r="M213"/>
-      <c r="N213"/>
-      <c r="O213"/>
+      <c r="M213" t="n">
+        <v>25.3634545070029</v>
+      </c>
+      <c r="N213" t="n">
+        <v>0.888554138813603</v>
+      </c>
+      <c r="O213" t="n">
+        <v>0.0033753950342707</v>
+      </c>
       <c r="P213" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B214" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C214" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D214" t="s">
         <v>18</v>
@@ -10966,48 +10960,42 @@
         <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G214" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H214" t="n">
-        <v>142</v>
+        <v>976</v>
       </c>
       <c r="I214" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J214" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="K214" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="L214" t="b">
         <v>1</v>
       </c>
-      <c r="M214" t="n">
-        <v>23.3866454027794</v>
-      </c>
-      <c r="N214" t="n">
-        <v>-0.133993639774481</v>
-      </c>
-      <c r="O214" t="n">
-        <v>0.724482761673577</v>
-      </c>
+      <c r="M214"/>
+      <c r="N214"/>
+      <c r="O214"/>
       <c r="P214" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B215" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C215" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D215" t="s">
         <v>18</v>
@@ -11016,48 +11004,42 @@
         <v>1</v>
       </c>
       <c r="F215" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G215" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H215" t="n">
-        <v>722</v>
+        <v>2</v>
       </c>
       <c r="I215" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="J215" t="n">
-        <v>1997</v>
+        <v>2016</v>
       </c>
       <c r="K215" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="L215" t="b">
-        <v>1</v>
-      </c>
-      <c r="M215" t="n">
-        <v>17.2242004763788</v>
-      </c>
-      <c r="N215" t="n">
-        <v>-0.0625775302178686</v>
-      </c>
-      <c r="O215" t="n">
-        <v>0.744513990778776</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M215"/>
+      <c r="N215"/>
+      <c r="O215"/>
       <c r="P215" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B216" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C216" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D216" t="s">
         <v>18</v>
@@ -11066,34 +11048,34 @@
         <v>1</v>
       </c>
       <c r="F216" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G216" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H216" t="n">
-        <v>3169</v>
+        <v>559</v>
       </c>
       <c r="I216" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J216" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="K216" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="L216" t="b">
         <v>1</v>
       </c>
       <c r="M216" t="n">
-        <v>34.9836008250607</v>
+        <v>36.5374750333899</v>
       </c>
       <c r="N216" t="n">
-        <v>-0.111791711877384</v>
+        <v>0.141924957308229</v>
       </c>
       <c r="O216" t="n">
-        <v>0.468476639281231</v>
+        <v>0.708114476390118</v>
       </c>
       <c r="P216" t="s">
         <v>23</v>
@@ -11107,7 +11089,7 @@
         <v>121</v>
       </c>
       <c r="C217" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D217" t="s">
         <v>18</v>
@@ -11122,25 +11104,31 @@
         <v>63</v>
       </c>
       <c r="H217" t="n">
-        <v>13</v>
+        <v>1684</v>
       </c>
       <c r="I217" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J217" t="n">
-        <v>2018</v>
+        <v>1999</v>
       </c>
       <c r="K217" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="L217" t="b">
-        <v>0</v>
-      </c>
-      <c r="M217"/>
-      <c r="N217"/>
-      <c r="O217"/>
+        <v>1</v>
+      </c>
+      <c r="M217" t="n">
+        <v>33.7946272452919</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0.282382323914653</v>
+      </c>
+      <c r="O217" t="n">
+        <v>0.391636122002955</v>
+      </c>
       <c r="P217" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="218">
@@ -11151,7 +11139,7 @@
         <v>121</v>
       </c>
       <c r="C218" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D218" t="s">
         <v>18</v>
@@ -11166,262 +11154,24 @@
         <v>63</v>
       </c>
       <c r="H218" t="n">
-        <v>731</v>
+        <v>3</v>
       </c>
       <c r="I218" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="J218" t="n">
-        <v>1999</v>
+        <v>2016</v>
       </c>
       <c r="K218" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="L218" t="b">
-        <v>1</v>
-      </c>
-      <c r="M218" t="n">
-        <v>25.3634545070029</v>
-      </c>
-      <c r="N218" t="n">
-        <v>0.888554138813603</v>
-      </c>
-      <c r="O218" t="n">
-        <v>0.0033753950342707</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M218"/>
+      <c r="N218"/>
+      <c r="O218"/>
       <c r="P218" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>44</v>
-      </c>
-      <c r="B219" t="s">
-        <v>121</v>
-      </c>
-      <c r="C219" t="s">
-        <v>28</v>
-      </c>
-      <c r="D219" t="s">
-        <v>18</v>
-      </c>
-      <c r="E219" t="n">
-        <v>1</v>
-      </c>
-      <c r="F219" t="s">
-        <v>62</v>
-      </c>
-      <c r="G219" t="s">
-        <v>63</v>
-      </c>
-      <c r="H219" t="n">
-        <v>976</v>
-      </c>
-      <c r="I219" t="n">
-        <v>25</v>
-      </c>
-      <c r="J219" t="n">
-        <v>1999</v>
-      </c>
-      <c r="K219" t="n">
-        <v>2023</v>
-      </c>
-      <c r="L219" t="b">
-        <v>1</v>
-      </c>
-      <c r="M219"/>
-      <c r="N219"/>
-      <c r="O219"/>
-      <c r="P219" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>44</v>
-      </c>
-      <c r="B220" t="s">
-        <v>121</v>
-      </c>
-      <c r="C220" t="s">
-        <v>30</v>
-      </c>
-      <c r="D220" t="s">
-        <v>18</v>
-      </c>
-      <c r="E220" t="n">
-        <v>1</v>
-      </c>
-      <c r="F220" t="s">
-        <v>62</v>
-      </c>
-      <c r="G220" t="s">
-        <v>63</v>
-      </c>
-      <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>2</v>
-      </c>
-      <c r="J220" t="n">
-        <v>2016</v>
-      </c>
-      <c r="K220" t="n">
-        <v>2021</v>
-      </c>
-      <c r="L220" t="b">
-        <v>0</v>
-      </c>
-      <c r="M220"/>
-      <c r="N220"/>
-      <c r="O220"/>
-      <c r="P220" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>44</v>
-      </c>
-      <c r="B221" t="s">
-        <v>121</v>
-      </c>
-      <c r="C221" t="s">
-        <v>31</v>
-      </c>
-      <c r="D221" t="s">
-        <v>18</v>
-      </c>
-      <c r="E221" t="n">
-        <v>1</v>
-      </c>
-      <c r="F221" t="s">
-        <v>62</v>
-      </c>
-      <c r="G221" t="s">
-        <v>63</v>
-      </c>
-      <c r="H221" t="n">
-        <v>559</v>
-      </c>
-      <c r="I221" t="n">
-        <v>25</v>
-      </c>
-      <c r="J221" t="n">
-        <v>1999</v>
-      </c>
-      <c r="K221" t="n">
-        <v>2023</v>
-      </c>
-      <c r="L221" t="b">
-        <v>1</v>
-      </c>
-      <c r="M221" t="n">
-        <v>36.5374750333899</v>
-      </c>
-      <c r="N221" t="n">
-        <v>0.141924957308229</v>
-      </c>
-      <c r="O221" t="n">
-        <v>0.708114476390118</v>
-      </c>
-      <c r="P221" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>44</v>
-      </c>
-      <c r="B222" t="s">
-        <v>121</v>
-      </c>
-      <c r="C222" t="s">
-        <v>32</v>
-      </c>
-      <c r="D222" t="s">
-        <v>18</v>
-      </c>
-      <c r="E222" t="n">
-        <v>1</v>
-      </c>
-      <c r="F222" t="s">
-        <v>62</v>
-      </c>
-      <c r="G222" t="s">
-        <v>63</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1684</v>
-      </c>
-      <c r="I222" t="n">
-        <v>25</v>
-      </c>
-      <c r="J222" t="n">
-        <v>1999</v>
-      </c>
-      <c r="K222" t="n">
-        <v>2023</v>
-      </c>
-      <c r="L222" t="b">
-        <v>1</v>
-      </c>
-      <c r="M222" t="n">
-        <v>33.7946272452919</v>
-      </c>
-      <c r="N222" t="n">
-        <v>0.282382323914653</v>
-      </c>
-      <c r="O222" t="n">
-        <v>0.391636122002955</v>
-      </c>
-      <c r="P222" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>44</v>
-      </c>
-      <c r="B223" t="s">
-        <v>121</v>
-      </c>
-      <c r="C223" t="s">
-        <v>66</v>
-      </c>
-      <c r="D223" t="s">
-        <v>18</v>
-      </c>
-      <c r="E223" t="n">
-        <v>1</v>
-      </c>
-      <c r="F223" t="s">
-        <v>62</v>
-      </c>
-      <c r="G223" t="s">
-        <v>63</v>
-      </c>
-      <c r="H223" t="n">
-        <v>3</v>
-      </c>
-      <c r="I223" t="n">
-        <v>3</v>
-      </c>
-      <c r="J223" t="n">
-        <v>2016</v>
-      </c>
-      <c r="K223" t="n">
-        <v>2021</v>
-      </c>
-      <c r="L223" t="b">
-        <v>0</v>
-      </c>
-      <c r="M223"/>
-      <c r="N223"/>
-      <c r="O223"/>
-      <c r="P223" t="s">
         <v>27</v>
       </c>
     </row>

--- a/SAV/output/website/SAV_BBpct_LMEresults_All.xlsx
+++ b/SAV/output/website/SAV_BBpct_LMEresults_All.xlsx
@@ -356,7 +356,7 @@
     <t xml:space="preserve">Rookery Bay National Estuarine Research Reserve</t>
   </si>
   <si>
-    <t xml:space="preserve">St. Andrews State Park Aquatic Preserve</t>
+    <t xml:space="preserve">St. Andrews Aquatic Preserve</t>
   </si>
   <si>
     <t xml:space="preserve">Central Panhandle Aquatic Preserves Seagrass Monitoring, St. Andrew Bay Aquatic Preserve Seagrass Monitoring</t>
@@ -10005,13 +10005,13 @@
         <v>1</v>
       </c>
       <c r="M194" t="n">
-        <v>84.4240875767503</v>
+        <v>84.4240525929707</v>
       </c>
       <c r="N194" t="n">
-        <v>-2.62425821800902</v>
+        <v>-2.62425693324902</v>
       </c>
       <c r="O194" t="n">
-        <v>0.0740365212949048</v>
+        <v>0.0740357901071176</v>
       </c>
       <c r="P194" t="s">
         <v>23</v>
@@ -10055,13 +10055,13 @@
         <v>1</v>
       </c>
       <c r="M195" t="n">
-        <v>11.9869803993408</v>
+        <v>11.9869804005955</v>
       </c>
       <c r="N195" t="n">
-        <v>0.27052871964274</v>
+        <v>0.270528719596189</v>
       </c>
       <c r="O195" t="n">
-        <v>0.485492239750769</v>
+        <v>0.485492239588718</v>
       </c>
       <c r="P195" t="s">
         <v>23</v>
@@ -10149,13 +10149,13 @@
         <v>1</v>
       </c>
       <c r="M197" t="n">
-        <v>4.17288209344542</v>
+        <v>4.17290189953575</v>
       </c>
       <c r="N197" t="n">
-        <v>-0.151399197205583</v>
+        <v>-0.151398517909744</v>
       </c>
       <c r="O197" t="n">
-        <v>0.819587742428702</v>
+        <v>0.81958861886694</v>
       </c>
       <c r="P197" t="s">
         <v>23</v>
@@ -10199,13 +10199,13 @@
         <v>1</v>
       </c>
       <c r="M198" t="n">
-        <v>27.0389702137899</v>
+        <v>27.0389721308422</v>
       </c>
       <c r="N198" t="n">
-        <v>1.06249136556588</v>
+        <v>1.06249128763984</v>
       </c>
       <c r="O198" t="n">
-        <v>0.131535963423934</v>
+        <v>0.131535961470581</v>
       </c>
       <c r="P198" t="s">
         <v>23</v>
@@ -10249,13 +10249,13 @@
         <v>1</v>
       </c>
       <c r="M199" t="n">
-        <v>88.135881202134</v>
+        <v>88.1359321457827</v>
       </c>
       <c r="N199" t="n">
-        <v>-1.52267831398093</v>
+        <v>-1.52268347944976</v>
       </c>
       <c r="O199" t="n">
-        <v>0.150234764324765</v>
+        <v>0.150223160603143</v>
       </c>
       <c r="P199" t="s">
         <v>23</v>

--- a/SAV/output/website/SAV_BBpct_LMEresults_All.xlsx
+++ b/SAV/output/website/SAV_BBpct_LMEresults_All.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t xml:space="preserve">AreaID</t>
   </si>
@@ -242,16 +242,22 @@
     <t xml:space="preserve">Florida Keys National Marine Sanctuary</t>
   </si>
   <si>
-    <t xml:space="preserve">Florida Keys National Marine Sanctuary Seagrass Monitoring Project, Miami-Dade County DERM Benthic Habitat Monitoring Program, South Florida Seagrass Fish and Invertebrate Assessment Network, The South Florida Fisheries Habitat Assessment Program (FHAP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">296, 965, 4018, 4049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Florida Seagrass Fish and Invertebrate Assessment Network, The South Florida Fisheries Habitat Assessment Program (FHAP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">965, 4049</t>
+    <t xml:space="preserve">Florida Keys Aquatic Preserves Seagrass Monitoring, Florida Keys National Marine Sanctuary Seagrass Monitoring Project, Miami-Dade County DERM Benthic Habitat Monitoring Program, South Florida Seagrass Fish and Invertebrate Assessment Network, The South Florida Fisheries Habitat Assessment Program (FHAP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">296, 965, 4018, 4049, 10007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida Keys Aquatic Preserves Seagrass Monitoring, Miami-Dade County DERM Benthic Habitat Monitoring Program, South Florida Seagrass Fish and Invertebrate Assessment Network, The South Florida Fisheries Habitat Assessment Program (FHAP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">965, 4018, 4049, 10007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida Keys Aquatic Preserves Seagrass Monitoring, South Florida Seagrass Fish and Invertebrate Assessment Network, The South Florida Fisheries Habitat Assessment Program (FHAP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">965, 4049, 10007</t>
   </si>
   <si>
     <t xml:space="preserve">Fort Pickens State Park Aquatic Preserve</t>
@@ -290,6 +296,15 @@
     <t xml:space="preserve">568, 570</t>
   </si>
   <si>
+    <t xml:space="preserve">Lignumvitae Key Aquatic Preserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida Keys Aquatic Preserves Seagrass Monitoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10007</t>
+  </si>
+  <si>
     <t xml:space="preserve">Loxahatchee River-Lake Worth Creek Aquatic Preserve</t>
   </si>
   <si>
@@ -302,6 +317,18 @@
     <t xml:space="preserve">Matlacha Pass Aquatic Preserve</t>
   </si>
   <si>
+    <t xml:space="preserve">Charlotte Harbor Seagrass Monitoring, SCCF Seagrass Surveys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">570, 3015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCCF Seagrass Surveys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3015</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mosquito Lagoon Aquatic Preserve</t>
   </si>
   <si>
@@ -309,18 +336,6 @@
   </si>
   <si>
     <t xml:space="preserve">Pine Island Sound Aquatic Preserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charlotte Harbor Seagrass Monitoring, SCCF Seagrass Surveys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">570, 3015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCCF Seagrass Surveys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3015</t>
   </si>
   <si>
     <t xml:space="preserve">Pinellas County Aquatic Preserve</t>
@@ -717,7 +732,7 @@
     <col min="4" max="4" width="37.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="10.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="250.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="21.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="27.71" hidden="0" customWidth="1"/>
     <col min="8" max="8" width="6.71" hidden="0" customWidth="1"/>
     <col min="9" max="9" width="7.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="12.71" hidden="0" customWidth="1"/>
@@ -817,13 +832,13 @@
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>79.402895034247</v>
+        <v>79.4029214173515</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.35625728665174</v>
+        <v>-2.35626636964849</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0273479362622785</v>
+        <v>0.0273449574529121</v>
       </c>
       <c r="P2" t="s">
         <v>21</v>
@@ -867,13 +882,13 @@
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>29.7876389814791</v>
+        <v>29.7876434404689</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.499366850342818</v>
+        <v>-0.499367096337099</v>
       </c>
       <c r="O3" t="n">
-        <v>0.471691460450854</v>
+        <v>0.47169123539315</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -1049,13 +1064,13 @@
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>47.8583559940039</v>
+        <v>47.8583554328725</v>
       </c>
       <c r="N7" t="n">
-        <v>-1.22814510190374</v>
+        <v>-1.22814508288897</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0253567825599708</v>
+        <v>0.0253567863646845</v>
       </c>
       <c r="P7" t="s">
         <v>21</v>
@@ -1099,13 +1114,13 @@
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>30.9692648225076</v>
+        <v>30.9690324948559</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.453099866173317</v>
+        <v>-0.453089171674389</v>
       </c>
       <c r="O8" t="n">
-        <v>0.377844623851556</v>
+        <v>0.377857977930008</v>
       </c>
       <c r="P8" t="s">
         <v>23</v>
@@ -1149,13 +1164,13 @@
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>84.822043879798</v>
+        <v>84.8219702012535</v>
       </c>
       <c r="N9" t="n">
-        <v>-2.63096604502366</v>
+        <v>-2.63096007154072</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0014345926082993</v>
+        <v>0.00143449561043848</v>
       </c>
       <c r="P9" t="s">
         <v>21</v>
@@ -1199,13 +1214,13 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>31.6899278955422</v>
+        <v>31.689931606138</v>
       </c>
       <c r="N10" t="n">
-        <v>0.916393428981691</v>
+        <v>0.916393272319195</v>
       </c>
       <c r="O10" t="n">
-        <v>0.487611094988055</v>
+        <v>0.487611162523752</v>
       </c>
       <c r="P10" t="s">
         <v>23</v>
@@ -1337,13 +1352,13 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>60.3076180688322</v>
+        <v>60.3078035654648</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.83626182663921</v>
+        <v>-1.83626458333325</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0314661289884268</v>
+        <v>0.0314669515239364</v>
       </c>
       <c r="P13" t="s">
         <v>21</v>
@@ -1387,13 +1402,13 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>42.9808650877715</v>
+        <v>42.9808649251357</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.244491949293782</v>
+        <v>-0.244491943134917</v>
       </c>
       <c r="O14" t="n">
-        <v>0.726844663076592</v>
+        <v>0.726844670485489</v>
       </c>
       <c r="P14" t="s">
         <v>23</v>
@@ -1638,28 +1653,28 @@
         <v>43</v>
       </c>
       <c r="H20" t="n">
-        <v>4903</v>
+        <v>5015</v>
       </c>
       <c r="I20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J20" t="n">
         <v>1997</v>
       </c>
       <c r="K20" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>34.8235790465903</v>
+        <v>33.9007874331586</v>
       </c>
       <c r="N20" t="n">
-        <v>-1.42277871688251</v>
+        <v>-1.35742555341704</v>
       </c>
       <c r="O20" t="n">
-        <v>0.00000000000000000000000212723939567174</v>
+        <v>0.000000000000000000000000203377469239067</v>
       </c>
       <c r="P20" t="s">
         <v>21</v>
@@ -1688,28 +1703,28 @@
         <v>43</v>
       </c>
       <c r="H21" t="n">
-        <v>14763</v>
+        <v>15099</v>
       </c>
       <c r="I21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J21" t="n">
         <v>1997</v>
       </c>
       <c r="K21" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L21" t="b">
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.589094673260888</v>
+        <v>0.586438098835243</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.0189072762119157</v>
+        <v>-0.0187455406333436</v>
       </c>
       <c r="O21" t="n">
-        <v>0.00442572068698074</v>
+        <v>0.00260339690177092</v>
       </c>
       <c r="P21" t="s">
         <v>21</v>
@@ -1738,28 +1753,28 @@
         <v>43</v>
       </c>
       <c r="H22" t="n">
-        <v>4905</v>
+        <v>5017</v>
       </c>
       <c r="I22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J22" t="n">
         <v>1997</v>
       </c>
       <c r="K22" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L22" t="b">
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>8.53127322388499</v>
+        <v>8.1349572946358</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.396370070228365</v>
+        <v>-0.368128240338782</v>
       </c>
       <c r="O22" t="n">
-        <v>0.000233819236944589</v>
+        <v>0.000220172022349172</v>
       </c>
       <c r="P22" t="s">
         <v>21</v>
@@ -1788,28 +1803,28 @@
         <v>43</v>
       </c>
       <c r="H23" t="n">
-        <v>4921</v>
+        <v>5033</v>
       </c>
       <c r="I23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J23" t="n">
         <v>1997</v>
       </c>
       <c r="K23" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L23" t="b">
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0910997851252031</v>
+        <v>0.0920067229315442</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.0027346147100753</v>
+        <v>-0.00281889011236782</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0853554479576074</v>
+        <v>0.0740554281068865</v>
       </c>
       <c r="P23" t="s">
         <v>23</v>
@@ -1838,16 +1853,16 @@
         <v>43</v>
       </c>
       <c r="H24" t="n">
-        <v>4921</v>
+        <v>5033</v>
       </c>
       <c r="I24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J24" t="n">
         <v>1997</v>
       </c>
       <c r="K24" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L24" t="b">
         <v>1</v>
@@ -1882,28 +1897,28 @@
         <v>43</v>
       </c>
       <c r="H25" t="n">
-        <v>5156</v>
+        <v>5268</v>
       </c>
       <c r="I25" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J25" t="n">
         <v>1994</v>
       </c>
       <c r="K25" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L25" t="b">
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>41.1181167532788</v>
+        <v>40.2866137603621</v>
       </c>
       <c r="N25" t="n">
-        <v>-1.6748694797643</v>
+        <v>-1.61058688172235</v>
       </c>
       <c r="O25" t="n">
-        <v>0.00000000000000000202840877901935</v>
+        <v>0.000000000000000000722113633213353</v>
       </c>
       <c r="P25" t="s">
         <v>21</v>
@@ -1987,13 +2002,13 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>5.45392143181057</v>
+        <v>5.45391072011971</v>
       </c>
       <c r="N27" t="n">
-        <v>0.812732568020223</v>
+        <v>0.812732977917008</v>
       </c>
       <c r="O27" t="n">
-        <v>0.000000874247890609498</v>
+        <v>0.000000874242615872593</v>
       </c>
       <c r="P27" t="s">
         <v>50</v>
@@ -2037,13 +2052,13 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>24.8297466596059</v>
+        <v>24.8297466095871</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.431455088027303</v>
+        <v>-0.431455086397473</v>
       </c>
       <c r="O28" t="n">
-        <v>0.000128012079132964</v>
+        <v>0.000128012089267812</v>
       </c>
       <c r="P28" t="s">
         <v>21</v>
@@ -2087,13 +2102,13 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>18.5527893460252</v>
+        <v>18.5527893672857</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.134772661079553</v>
+        <v>-0.134772662261152</v>
       </c>
       <c r="O29" t="n">
-        <v>0.308991280724123</v>
+        <v>0.308991267684262</v>
       </c>
       <c r="P29" t="s">
         <v>23</v>
@@ -2181,13 +2196,13 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>25.9399018185975</v>
+        <v>25.9396036229984</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.279337514930479</v>
+        <v>-0.27930890670535</v>
       </c>
       <c r="O31" t="n">
-        <v>0.598228174030024</v>
+        <v>0.598258418024884</v>
       </c>
       <c r="P31" t="s">
         <v>23</v>
@@ -2231,13 +2246,13 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>35.9453957561678</v>
+        <v>35.9453958070078</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.427177138222527</v>
+        <v>-0.427177117773613</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0000535982565141017</v>
+        <v>0.000053598015625151</v>
       </c>
       <c r="P32" t="s">
         <v>21</v>
@@ -2281,13 +2296,13 @@
         <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>42.5160060107551</v>
+        <v>42.516006174884</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.481511155070139</v>
+        <v>-0.481511166139247</v>
       </c>
       <c r="O33" t="n">
-        <v>0.000000000600900475251893</v>
+        <v>0.000000000600899754674316</v>
       </c>
       <c r="P33" t="s">
         <v>21</v>
@@ -2316,31 +2331,31 @@
         <v>56</v>
       </c>
       <c r="H34" t="n">
-        <v>1954</v>
+        <v>2118</v>
       </c>
       <c r="I34" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J34" t="n">
         <v>2008</v>
       </c>
       <c r="K34" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L34" t="b">
         <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.25137980138311</v>
+        <v>-0.0338584136116649</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0221077495292678</v>
+        <v>0.00963406012485885</v>
       </c>
       <c r="O34" t="n">
-        <v>0.041037990299258</v>
+        <v>0.102881512925586</v>
       </c>
       <c r="P34" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
@@ -2366,28 +2381,28 @@
         <v>58</v>
       </c>
       <c r="H35" t="n">
-        <v>11085</v>
+        <v>11249</v>
       </c>
       <c r="I35" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J35" t="n">
         <v>1999</v>
       </c>
       <c r="K35" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L35" t="b">
         <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>11.2382127064375</v>
+        <v>10.7300595601416</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.343391560080332</v>
+        <v>-0.313698497351088</v>
       </c>
       <c r="O35" t="n">
-        <v>0.000000192178648316865</v>
+        <v>0.000000497673940350208</v>
       </c>
       <c r="P35" t="s">
         <v>21</v>
@@ -2416,28 +2431,28 @@
         <v>60</v>
       </c>
       <c r="H36" t="n">
-        <v>12753</v>
+        <v>13865</v>
       </c>
       <c r="I36" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J36" t="n">
         <v>1999</v>
       </c>
       <c r="K36" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L36" t="b">
         <v>1</v>
       </c>
       <c r="M36" t="n">
-        <v>9.26391042335148</v>
+        <v>8.20628315088408</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.286964236092556</v>
+        <v>-0.23154704325086</v>
       </c>
       <c r="O36" t="n">
-        <v>0.000000457133336683132</v>
+        <v>0.00000613290236282766</v>
       </c>
       <c r="P36" t="s">
         <v>21</v>
@@ -2466,28 +2481,28 @@
         <v>60</v>
       </c>
       <c r="H37" t="n">
-        <v>38278</v>
+        <v>40514</v>
       </c>
       <c r="I37" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J37" t="n">
         <v>2000</v>
       </c>
       <c r="K37" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L37" t="b">
         <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>0.590443939739687</v>
+        <v>0.668606372700147</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.0219981789623586</v>
+        <v>-0.0227167001769804</v>
       </c>
       <c r="O37" t="n">
-        <v>0.0249535145907996</v>
+        <v>0.00941316007048729</v>
       </c>
       <c r="P37" t="s">
         <v>21</v>
@@ -2516,16 +2531,16 @@
         <v>58</v>
       </c>
       <c r="H38" t="n">
-        <v>9311</v>
+        <v>9335</v>
       </c>
       <c r="I38" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J38" t="n">
         <v>2005</v>
       </c>
       <c r="K38" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L38" t="b">
         <v>1</v>
@@ -2560,28 +2575,28 @@
         <v>60</v>
       </c>
       <c r="H39" t="n">
-        <v>12676</v>
+        <v>13788</v>
       </c>
       <c r="I39" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J39" t="n">
         <v>1999</v>
       </c>
       <c r="K39" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L39" t="b">
         <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>20.0834241713649</v>
+        <v>14.7507003028008</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.612583917153088</v>
+        <v>-0.370286460260618</v>
       </c>
       <c r="O39" t="n">
-        <v>0.00000000255513229604749</v>
+        <v>0.000282124323879578</v>
       </c>
       <c r="P39" t="s">
         <v>21</v>
@@ -2610,28 +2625,28 @@
         <v>60</v>
       </c>
       <c r="H40" t="n">
-        <v>12972</v>
+        <v>14080</v>
       </c>
       <c r="I40" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J40" t="n">
         <v>1999</v>
       </c>
       <c r="K40" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L40" t="b">
         <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>46.5547420088713</v>
+        <v>45.0504478399706</v>
       </c>
       <c r="N40" t="n">
-        <v>-1.45270122204223</v>
+        <v>-1.37948295410189</v>
       </c>
       <c r="O40" t="n">
-        <v>0.00000000000000000000000000554348358356891</v>
+        <v>0.000000000000000000000000000230874001990556</v>
       </c>
       <c r="P40" t="s">
         <v>21</v>
@@ -2660,28 +2675,28 @@
         <v>58</v>
       </c>
       <c r="H41" t="n">
-        <v>9213</v>
+        <v>9399</v>
       </c>
       <c r="I41" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J41" t="n">
         <v>1999</v>
       </c>
       <c r="K41" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L41" t="b">
         <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>51.5763087615211</v>
+        <v>51.3012406323683</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.224688139389784</v>
+        <v>-0.210720901565839</v>
       </c>
       <c r="O41" t="n">
-        <v>0.244508663183131</v>
+        <v>0.246747964706292</v>
       </c>
       <c r="P41" t="s">
         <v>23</v>
@@ -2710,28 +2725,28 @@
         <v>60</v>
       </c>
       <c r="H42" t="n">
-        <v>10887</v>
+        <v>11998</v>
       </c>
       <c r="I42" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J42" t="n">
         <v>2005</v>
       </c>
       <c r="K42" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L42" t="b">
         <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>21.153466983041</v>
+        <v>17.1668352676616</v>
       </c>
       <c r="N42" t="n">
-        <v>0.499313131790993</v>
+        <v>0.606021674072554</v>
       </c>
       <c r="O42" t="n">
-        <v>0.0107796295560726</v>
+        <v>0.00127316757816461</v>
       </c>
       <c r="P42" t="s">
         <v>50</v>
@@ -2804,28 +2819,28 @@
         <v>65</v>
       </c>
       <c r="H44" t="n">
-        <v>1298</v>
+        <v>1352</v>
       </c>
       <c r="I44" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J44" t="n">
         <v>1998</v>
       </c>
       <c r="K44" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L44" t="b">
         <v>1</v>
       </c>
       <c r="M44" t="n">
-        <v>46.381564574662</v>
+        <v>47.9776204495857</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.0799712310197337</v>
+        <v>-0.198288963007622</v>
       </c>
       <c r="O44" t="n">
-        <v>0.677576247152905</v>
+        <v>0.377609133307048</v>
       </c>
       <c r="P44" t="s">
         <v>23</v>
@@ -2854,16 +2869,16 @@
         <v>63</v>
       </c>
       <c r="H45" t="n">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="I45" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J45" t="n">
         <v>1998</v>
       </c>
       <c r="K45" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L45" t="b">
         <v>1</v>
@@ -2898,16 +2913,16 @@
         <v>65</v>
       </c>
       <c r="H46" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J46" t="n">
         <v>2003</v>
       </c>
       <c r="K46" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L46" t="b">
         <v>1</v>
@@ -2942,31 +2957,31 @@
         <v>65</v>
       </c>
       <c r="H47" t="n">
-        <v>983</v>
+        <v>1014</v>
       </c>
       <c r="I47" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J47" t="n">
         <v>1998</v>
       </c>
       <c r="K47" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L47" t="b">
         <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>50.991032073876</v>
+        <v>52.3263057424217</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.426603174256321</v>
+        <v>-0.496445020780152</v>
       </c>
       <c r="O47" t="n">
-        <v>0.125536633065133</v>
+        <v>0.0492309598769332</v>
       </c>
       <c r="P47" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
@@ -3080,28 +3095,28 @@
         <v>69</v>
       </c>
       <c r="H50" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I50" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J50" t="n">
         <v>2003</v>
       </c>
       <c r="K50" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L50" t="b">
         <v>1</v>
       </c>
       <c r="M50" t="n">
-        <v>-14.7833452333819</v>
+        <v>-11.4840673786696</v>
       </c>
       <c r="N50" t="n">
-        <v>1.414632268571</v>
+        <v>1.24661540748319</v>
       </c>
       <c r="O50" t="n">
-        <v>0.00352423605680916</v>
+        <v>0.0166233333045051</v>
       </c>
       <c r="P50" t="s">
         <v>50</v>
@@ -3130,28 +3145,28 @@
         <v>69</v>
       </c>
       <c r="H51" t="n">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="I51" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J51" t="n">
         <v>1998</v>
       </c>
       <c r="K51" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L51" t="b">
         <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>22.005795630382</v>
+        <v>21.9819548961927</v>
       </c>
       <c r="N51" t="n">
-        <v>-0.340333779885877</v>
+        <v>-0.330012373168787</v>
       </c>
       <c r="O51" t="n">
-        <v>0.374646116617036</v>
+        <v>0.348782449920717</v>
       </c>
       <c r="P51" t="s">
         <v>23</v>
@@ -3180,16 +3195,16 @@
         <v>69</v>
       </c>
       <c r="H52" t="n">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I52" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J52" t="n">
         <v>1998</v>
       </c>
       <c r="K52" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L52" t="b">
         <v>1</v>
@@ -3224,28 +3239,28 @@
         <v>69</v>
       </c>
       <c r="H53" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I53" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J53" t="n">
         <v>1998</v>
       </c>
       <c r="K53" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L53" t="b">
         <v>1</v>
       </c>
       <c r="M53" t="n">
-        <v>32.0103659115797</v>
+        <v>31.3222862611413</v>
       </c>
       <c r="N53" t="n">
-        <v>-0.132094225452055</v>
+        <v>-0.165135704523702</v>
       </c>
       <c r="O53" t="n">
-        <v>0.901266752206427</v>
+        <v>0.831128064926257</v>
       </c>
       <c r="P53" t="s">
         <v>23</v>
@@ -3274,28 +3289,28 @@
         <v>69</v>
       </c>
       <c r="H54" t="n">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="I54" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J54" t="n">
         <v>1998</v>
       </c>
       <c r="K54" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L54" t="b">
         <v>1</v>
       </c>
       <c r="M54" t="n">
-        <v>22.9252936675518</v>
+        <v>24.5778014751751</v>
       </c>
       <c r="N54" t="n">
-        <v>0.33651420459383</v>
+        <v>0.218495167677927</v>
       </c>
       <c r="O54" t="n">
-        <v>0.294673371962586</v>
+        <v>0.483422207860359</v>
       </c>
       <c r="P54" t="s">
         <v>23</v>
@@ -3324,28 +3339,28 @@
         <v>69</v>
       </c>
       <c r="H55" t="n">
-        <v>631</v>
+        <v>666</v>
       </c>
       <c r="I55" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J55" t="n">
         <v>1998</v>
       </c>
       <c r="K55" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L55" t="b">
         <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>29.1499426359424</v>
+        <v>31.2028300204007</v>
       </c>
       <c r="N55" t="n">
-        <v>-0.270294554977378</v>
+        <v>-0.394610085552156</v>
       </c>
       <c r="O55" t="n">
-        <v>0.509202014976891</v>
+        <v>0.320530875879872</v>
       </c>
       <c r="P55" t="s">
         <v>23</v>
@@ -3462,28 +3477,28 @@
         <v>63</v>
       </c>
       <c r="H58" t="n">
-        <v>541</v>
+        <v>572</v>
       </c>
       <c r="I58" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J58" t="n">
         <v>2000</v>
       </c>
       <c r="K58" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L58" t="b">
         <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>19.903186654137</v>
+        <v>19.2210209388705</v>
       </c>
       <c r="N58" t="n">
-        <v>0.474133509401234</v>
+        <v>0.529458795534344</v>
       </c>
       <c r="O58" t="n">
-        <v>0.035960983621585</v>
+        <v>0.0159141933378494</v>
       </c>
       <c r="P58" t="s">
         <v>50</v>
@@ -3512,16 +3527,16 @@
         <v>63</v>
       </c>
       <c r="H59" t="n">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="I59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J59" t="n">
         <v>2000</v>
       </c>
       <c r="K59" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L59" t="b">
         <v>1</v>
@@ -3556,28 +3571,28 @@
         <v>63</v>
       </c>
       <c r="H60" t="n">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="I60" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J60" t="n">
         <v>2000</v>
       </c>
       <c r="K60" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L60" t="b">
         <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>31.5489252170508</v>
+        <v>35.7777232495791</v>
       </c>
       <c r="N60" t="n">
-        <v>1.12222231899971</v>
+        <v>0.825668232311731</v>
       </c>
       <c r="O60" t="n">
-        <v>0.0523948436045436</v>
+        <v>0.0760965115153528</v>
       </c>
       <c r="P60" t="s">
         <v>23</v>
@@ -3606,28 +3621,28 @@
         <v>63</v>
       </c>
       <c r="H61" t="n">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="I61" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J61" t="n">
         <v>2000</v>
       </c>
       <c r="K61" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L61" t="b">
         <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>15.0521473156406</v>
+        <v>16.2416050985637</v>
       </c>
       <c r="N61" t="n">
-        <v>0.258947995338045</v>
+        <v>0.175117442874633</v>
       </c>
       <c r="O61" t="n">
-        <v>0.210605842772972</v>
+        <v>0.42480740143852</v>
       </c>
       <c r="P61" t="s">
         <v>23</v>
@@ -3700,28 +3715,28 @@
         <v>73</v>
       </c>
       <c r="H63" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I63" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J63" t="n">
         <v>2002</v>
       </c>
       <c r="K63" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="L63" t="b">
         <v>1</v>
       </c>
       <c r="M63" t="n">
-        <v>9.03538438053559</v>
+        <v>8.13470865386613</v>
       </c>
       <c r="N63" t="n">
-        <v>-0.250674908159659</v>
+        <v>-0.201985152177262</v>
       </c>
       <c r="O63" t="n">
-        <v>0.384284672901027</v>
+        <v>0.386178912889689</v>
       </c>
       <c r="P63" t="s">
         <v>23</v>
@@ -3750,28 +3765,28 @@
         <v>73</v>
       </c>
       <c r="H64" t="n">
-        <v>453</v>
+        <v>486</v>
       </c>
       <c r="I64" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J64" t="n">
         <v>2002</v>
       </c>
       <c r="K64" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L64" t="b">
         <v>1</v>
       </c>
       <c r="M64" t="n">
-        <v>19.3999217582956</v>
+        <v>20.0363360971138</v>
       </c>
       <c r="N64" t="n">
-        <v>-0.250622968473794</v>
+        <v>-0.287623337709177</v>
       </c>
       <c r="O64" t="n">
-        <v>0.37871346897413</v>
+        <v>0.37852297795719</v>
       </c>
       <c r="P64" t="s">
         <v>23</v>
@@ -3800,28 +3815,28 @@
         <v>73</v>
       </c>
       <c r="H65" t="n">
-        <v>809</v>
+        <v>848</v>
       </c>
       <c r="I65" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J65" t="n">
         <v>2002</v>
       </c>
       <c r="K65" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L65" t="b">
         <v>1</v>
       </c>
       <c r="M65" t="n">
-        <v>36.8833777166611</v>
+        <v>37.073941318164</v>
       </c>
       <c r="N65" t="n">
-        <v>-0.817869848407272</v>
+        <v>-0.830567769864988</v>
       </c>
       <c r="O65" t="n">
-        <v>0.00168884051973859</v>
+        <v>0.00105845486851883</v>
       </c>
       <c r="P65" t="s">
         <v>21</v>
@@ -3865,13 +3880,13 @@
         <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>18.8993364609366</v>
+        <v>18.8993364838794</v>
       </c>
       <c r="N66" t="n">
-        <v>-0.0551538230136312</v>
+        <v>-0.0551538065310624</v>
       </c>
       <c r="O66" t="n">
-        <v>0.922197349901779</v>
+        <v>0.922197373226081</v>
       </c>
       <c r="P66" t="s">
         <v>23</v>
@@ -3944,16 +3959,16 @@
         <v>73</v>
       </c>
       <c r="H68" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="I68" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J68" t="n">
         <v>2002</v>
       </c>
       <c r="K68" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L68" t="b">
         <v>1</v>
@@ -4003,13 +4018,13 @@
         <v>1</v>
       </c>
       <c r="M69" t="n">
-        <v>26.9390514596904</v>
+        <v>26.9390954778279</v>
       </c>
       <c r="N69" t="n">
-        <v>-0.972113015160505</v>
+        <v>-0.972095996812152</v>
       </c>
       <c r="O69" t="n">
-        <v>0.351752582503188</v>
+        <v>0.351760435718147</v>
       </c>
       <c r="P69" t="s">
         <v>23</v>
@@ -4038,28 +4053,28 @@
         <v>73</v>
       </c>
       <c r="H70" t="n">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="I70" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J70" t="n">
         <v>2002</v>
       </c>
       <c r="K70" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L70" t="b">
         <v>1</v>
       </c>
       <c r="M70" t="n">
-        <v>22.2733550793699</v>
+        <v>22.4462541270106</v>
       </c>
       <c r="N70" t="n">
-        <v>-0.469259592500342</v>
+        <v>-0.47904710977692</v>
       </c>
       <c r="O70" t="n">
-        <v>0.0173598788663346</v>
+        <v>0.0101183615661718</v>
       </c>
       <c r="P70" t="s">
         <v>21</v>
@@ -4088,28 +4103,28 @@
         <v>73</v>
       </c>
       <c r="H71" t="n">
-        <v>843</v>
+        <v>888</v>
       </c>
       <c r="I71" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J71" t="n">
         <v>2006</v>
       </c>
       <c r="K71" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L71" t="b">
         <v>1</v>
       </c>
       <c r="M71" t="n">
-        <v>48.0986109736814</v>
+        <v>47.6649674238452</v>
       </c>
       <c r="N71" t="n">
-        <v>-1.29323902743573</v>
+        <v>-1.27036875345826</v>
       </c>
       <c r="O71" t="n">
-        <v>0.0236360447511425</v>
+        <v>0.0235055099480932</v>
       </c>
       <c r="P71" t="s">
         <v>21</v>
@@ -4182,7 +4197,7 @@
         <v>56</v>
       </c>
       <c r="H73" t="n">
-        <v>9088</v>
+        <v>9132</v>
       </c>
       <c r="I73" t="n">
         <v>17</v>
@@ -4197,13 +4212,13 @@
         <v>1</v>
       </c>
       <c r="M73" t="n">
-        <v>0.0761161019149181</v>
+        <v>0.0758368299035063</v>
       </c>
       <c r="N73" t="n">
-        <v>-0.00254316214180607</v>
+        <v>-0.00252875986567735</v>
       </c>
       <c r="O73" t="n">
-        <v>0.216529887057952</v>
+        <v>0.21189295104168</v>
       </c>
       <c r="P73" t="s">
         <v>23</v>
@@ -4232,7 +4247,7 @@
         <v>58</v>
       </c>
       <c r="H74" t="n">
-        <v>17465</v>
+        <v>17509</v>
       </c>
       <c r="I74" t="n">
         <v>26</v>
@@ -4247,13 +4262,13 @@
         <v>1</v>
       </c>
       <c r="M74" t="n">
-        <v>9.14536324543455</v>
+        <v>9.03257305752796</v>
       </c>
       <c r="N74" t="n">
-        <v>-0.233490258262845</v>
+        <v>-0.225030998869794</v>
       </c>
       <c r="O74" t="n">
-        <v>0.0000181920838899786</v>
+        <v>0.0000182151319884356</v>
       </c>
       <c r="P74" t="s">
         <v>21</v>
@@ -4273,7 +4288,7 @@
         <v>18</v>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F75" t="s">
         <v>76</v>
@@ -4282,7 +4297,7 @@
         <v>77</v>
       </c>
       <c r="H75" t="n">
-        <v>18815</v>
+        <v>18961</v>
       </c>
       <c r="I75" t="n">
         <v>29</v>
@@ -4297,13 +4312,13 @@
         <v>1</v>
       </c>
       <c r="M75" t="n">
-        <v>7.07864620372275</v>
+        <v>6.73486166531502</v>
       </c>
       <c r="N75" t="n">
-        <v>-0.274128101353008</v>
+        <v>-0.249327439209218</v>
       </c>
       <c r="O75" t="n">
-        <v>0.00010164748850697</v>
+        <v>0.000222134049987985</v>
       </c>
       <c r="P75" t="s">
         <v>21</v>
@@ -4323,16 +4338,16 @@
         <v>18</v>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="G76" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="H76" t="n">
-        <v>46628</v>
+        <v>46762</v>
       </c>
       <c r="I76" t="n">
         <v>20</v>
@@ -4347,13 +4362,13 @@
         <v>1</v>
       </c>
       <c r="M76" t="n">
-        <v>0.0749727990862403</v>
+        <v>0.0759972082175504</v>
       </c>
       <c r="N76" t="n">
-        <v>-0.00231432454352347</v>
+        <v>-0.00236205422017377</v>
       </c>
       <c r="O76" t="n">
-        <v>0.329161816495986</v>
+        <v>0.303057711180532</v>
       </c>
       <c r="P76" t="s">
         <v>23</v>
@@ -4373,16 +4388,16 @@
         <v>18</v>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G77" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H77" t="n">
-        <v>16956</v>
+        <v>17002</v>
       </c>
       <c r="I77" t="n">
         <v>19</v>
@@ -4397,13 +4412,13 @@
         <v>1</v>
       </c>
       <c r="M77" t="n">
-        <v>-0.0383107915166271</v>
+        <v>-0.037620182191274</v>
       </c>
       <c r="N77" t="n">
-        <v>0.00281752135098736</v>
+        <v>0.00276837307072622</v>
       </c>
       <c r="O77" t="n">
-        <v>0.104428095424631</v>
+        <v>0.104988262573557</v>
       </c>
       <c r="P77" t="s">
         <v>23</v>
@@ -4423,7 +4438,7 @@
         <v>18</v>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F78" t="s">
         <v>76</v>
@@ -4432,7 +4447,7 @@
         <v>77</v>
       </c>
       <c r="H78" t="n">
-        <v>18790</v>
+        <v>18880</v>
       </c>
       <c r="I78" t="n">
         <v>29</v>
@@ -4447,13 +4462,13 @@
         <v>1</v>
       </c>
       <c r="M78" t="n">
-        <v>4.92484791881944</v>
+        <v>4.88761818989823</v>
       </c>
       <c r="N78" t="n">
-        <v>-0.111017385478952</v>
+        <v>-0.106401736366778</v>
       </c>
       <c r="O78" t="n">
-        <v>0.0174460460435339</v>
+        <v>0.0205244100822212</v>
       </c>
       <c r="P78" t="s">
         <v>21</v>
@@ -4473,7 +4488,7 @@
         <v>18</v>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F79" t="s">
         <v>76</v>
@@ -4482,7 +4497,7 @@
         <v>77</v>
       </c>
       <c r="H79" t="n">
-        <v>18921</v>
+        <v>19201</v>
       </c>
       <c r="I79" t="n">
         <v>29</v>
@@ -4497,13 +4512,13 @@
         <v>1</v>
       </c>
       <c r="M79" t="n">
-        <v>43.8162348673161</v>
+        <v>43.3088390618793</v>
       </c>
       <c r="N79" t="n">
-        <v>-1.46389266553405</v>
+        <v>-1.42664895537423</v>
       </c>
       <c r="O79" t="n">
-        <v>0.00000000000000000000000000000191588250416409</v>
+        <v>0.00000000000000000000000000000198475441221113</v>
       </c>
       <c r="P79" t="s">
         <v>21</v>
@@ -4532,7 +4547,7 @@
         <v>58</v>
       </c>
       <c r="H80" t="n">
-        <v>16182</v>
+        <v>16233</v>
       </c>
       <c r="I80" t="n">
         <v>26</v>
@@ -4547,13 +4562,13 @@
         <v>1</v>
       </c>
       <c r="M80" t="n">
-        <v>31.5258441801871</v>
+        <v>31.6516899923504</v>
       </c>
       <c r="N80" t="n">
-        <v>0.220381487521718</v>
+        <v>0.215667371185139</v>
       </c>
       <c r="O80" t="n">
-        <v>0.170066212970176</v>
+        <v>0.164546093099561</v>
       </c>
       <c r="P80" t="s">
         <v>23</v>
@@ -4573,16 +4588,16 @@
         <v>18</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="H81" t="n">
-        <v>15660</v>
+        <v>15943</v>
       </c>
       <c r="I81" t="n">
         <v>20</v>
@@ -4597,13 +4612,13 @@
         <v>1</v>
       </c>
       <c r="M81" t="n">
-        <v>16.4149550289017</v>
+        <v>16.7192042598665</v>
       </c>
       <c r="N81" t="n">
-        <v>0.250352644420779</v>
+        <v>0.228935884807721</v>
       </c>
       <c r="O81" t="n">
-        <v>0.00679366812342641</v>
+        <v>0.00953016845045274</v>
       </c>
       <c r="P81" t="s">
         <v>50</v>
@@ -4614,7 +4629,7 @@
         <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C82" t="s">
         <v>22</v>
@@ -4626,37 +4641,37 @@
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G82" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H82" t="n">
-        <v>1134</v>
+        <v>1206</v>
       </c>
       <c r="I82" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J82" t="n">
         <v>2016</v>
       </c>
       <c r="K82" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="L82" t="b">
         <v>1</v>
       </c>
       <c r="M82" t="n">
-        <v>69.2655708845782</v>
+        <v>65.3698281914598</v>
       </c>
       <c r="N82" t="n">
-        <v>-0.849733152428273</v>
+        <v>-0.690905530896764</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0492382141508703</v>
+        <v>0.0545337671929453</v>
       </c>
       <c r="P82" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83">
@@ -4664,7 +4679,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -4676,22 +4691,22 @@
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G83" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H83" t="n">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="I83" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J83" t="n">
         <v>2016</v>
       </c>
       <c r="K83" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="L83" t="b">
         <v>1</v>
@@ -4708,7 +4723,7 @@
         <v>17</v>
       </c>
       <c r="B84" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C84" t="s">
         <v>30</v>
@@ -4720,10 +4735,10 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G84" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H84" t="n">
         <v>4</v>
@@ -4752,7 +4767,7 @@
         <v>17</v>
       </c>
       <c r="B85" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C85" t="s">
         <v>31</v>
@@ -4764,10 +4779,10 @@
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G85" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H85" t="n">
         <v>3</v>
@@ -4796,7 +4811,7 @@
         <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C86" t="s">
         <v>32</v>
@@ -4808,37 +4823,37 @@
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G86" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H86" t="n">
-        <v>693</v>
+        <v>744</v>
       </c>
       <c r="I86" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J86" t="n">
         <v>2016</v>
       </c>
       <c r="K86" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="L86" t="b">
         <v>1</v>
       </c>
       <c r="M86" t="n">
-        <v>2.34654552139575</v>
+        <v>19.5096247739125</v>
       </c>
       <c r="N86" t="n">
-        <v>1.75927654686752</v>
+        <v>1.07987826960051</v>
       </c>
       <c r="O86" t="n">
-        <v>0.00704856019663969</v>
+        <v>0.0510252959384295</v>
       </c>
       <c r="P86" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87">
@@ -4846,7 +4861,7 @@
         <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C87" t="s">
         <v>45</v>
@@ -4858,34 +4873,34 @@
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G87" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H87" t="n">
-        <v>1385</v>
+        <v>1481</v>
       </c>
       <c r="I87" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J87" t="n">
         <v>2016</v>
       </c>
       <c r="K87" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="L87" t="b">
         <v>1</v>
       </c>
       <c r="M87" t="n">
-        <v>86.8997131167772</v>
+        <v>88.2665217996213</v>
       </c>
       <c r="N87" t="n">
-        <v>-1.03418261223617</v>
+        <v>-1.0880291412905</v>
       </c>
       <c r="O87" t="n">
-        <v>0.137867247576934</v>
+        <v>0.0665589908704265</v>
       </c>
       <c r="P87" t="s">
         <v>23</v>
@@ -4896,7 +4911,7 @@
         <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C88" t="s">
         <v>46</v>
@@ -4908,34 +4923,34 @@
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G88" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H88" t="n">
-        <v>1392</v>
+        <v>1488</v>
       </c>
       <c r="I88" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J88" t="n">
         <v>2016</v>
       </c>
       <c r="K88" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="L88" t="b">
         <v>1</v>
       </c>
       <c r="M88" t="n">
-        <v>79.9920987252989</v>
+        <v>81.4549321940367</v>
       </c>
       <c r="N88" t="n">
-        <v>-0.812461697480301</v>
+        <v>-0.870800717005251</v>
       </c>
       <c r="O88" t="n">
-        <v>0.272569750291903</v>
+        <v>0.162325709325709</v>
       </c>
       <c r="P88" t="s">
         <v>23</v>
@@ -4946,7 +4961,7 @@
         <v>18</v>
       </c>
       <c r="B89" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C89" t="s">
         <v>54</v>
@@ -4964,28 +4979,28 @@
         <v>69</v>
       </c>
       <c r="H89" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I89" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J89" t="n">
         <v>2007</v>
       </c>
       <c r="K89" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="L89" t="b">
         <v>1</v>
       </c>
       <c r="M89" t="n">
-        <v>-0.744464647405858</v>
+        <v>-11.3752419427044</v>
       </c>
       <c r="N89" t="n">
-        <v>0.283888874146011</v>
+        <v>0.911812319697717</v>
       </c>
       <c r="O89" t="n">
-        <v>0.316756103853071</v>
+        <v>0.257183683959014</v>
       </c>
       <c r="P89" t="s">
         <v>23</v>
@@ -4996,7 +5011,7 @@
         <v>18</v>
       </c>
       <c r="B90" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C90" t="s">
         <v>17</v>
@@ -5014,28 +5029,28 @@
         <v>69</v>
       </c>
       <c r="H90" t="n">
-        <v>756</v>
+        <v>836</v>
       </c>
       <c r="I90" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J90" t="n">
         <v>1999</v>
       </c>
       <c r="K90" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L90" t="b">
         <v>1</v>
       </c>
       <c r="M90" t="n">
-        <v>13.426199124495</v>
+        <v>8.35234095660149</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0716180218817769</v>
+        <v>0.370306147987355</v>
       </c>
       <c r="O90" t="n">
-        <v>0.773688990160881</v>
+        <v>0.179767123461435</v>
       </c>
       <c r="P90" t="s">
         <v>23</v>
@@ -5046,7 +5061,7 @@
         <v>18</v>
       </c>
       <c r="B91" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C91" t="s">
         <v>22</v>
@@ -5064,28 +5079,28 @@
         <v>69</v>
       </c>
       <c r="H91" t="n">
-        <v>2248</v>
+        <v>2328</v>
       </c>
       <c r="I91" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J91" t="n">
         <v>1998</v>
       </c>
       <c r="K91" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L91" t="b">
         <v>1</v>
       </c>
       <c r="M91" t="n">
-        <v>19.9204308643067</v>
+        <v>20.7923996517557</v>
       </c>
       <c r="N91" t="n">
-        <v>-0.058291023161806</v>
+        <v>-0.124768398790134</v>
       </c>
       <c r="O91" t="n">
-        <v>0.440408062672419</v>
+        <v>0.0762040102975333</v>
       </c>
       <c r="P91" t="s">
         <v>23</v>
@@ -5096,7 +5111,7 @@
         <v>18</v>
       </c>
       <c r="B92" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C92" t="s">
         <v>24</v>
@@ -5140,7 +5155,7 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -5158,16 +5173,16 @@
         <v>69</v>
       </c>
       <c r="H93" t="n">
-        <v>644</v>
+        <v>698</v>
       </c>
       <c r="I93" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J93" t="n">
         <v>1998</v>
       </c>
       <c r="K93" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L93" t="b">
         <v>1</v>
@@ -5184,7 +5199,7 @@
         <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C94" t="s">
         <v>30</v>
@@ -5216,17 +5231,11 @@
       <c r="L94" t="b">
         <v>1</v>
       </c>
-      <c r="M94" t="n">
-        <v>4.261966783255</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-0.0392843985580575</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0.795533491499624</v>
-      </c>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
       <c r="P94" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95">
@@ -5234,7 +5243,7 @@
         <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C95" t="s">
         <v>31</v>
@@ -5252,28 +5261,28 @@
         <v>69</v>
       </c>
       <c r="H95" t="n">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="I95" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J95" t="n">
         <v>1998</v>
       </c>
       <c r="K95" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L95" t="b">
         <v>1</v>
       </c>
       <c r="M95" t="n">
-        <v>45.5874284503638</v>
+        <v>46.71552547721</v>
       </c>
       <c r="N95" t="n">
-        <v>-0.19513314783516</v>
+        <v>-0.256647134401874</v>
       </c>
       <c r="O95" t="n">
-        <v>0.737788535636562</v>
+        <v>0.622020809866009</v>
       </c>
       <c r="P95" t="s">
         <v>23</v>
@@ -5284,7 +5293,7 @@
         <v>18</v>
       </c>
       <c r="B96" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C96" t="s">
         <v>32</v>
@@ -5302,28 +5311,28 @@
         <v>69</v>
       </c>
       <c r="H96" t="n">
-        <v>1036</v>
+        <v>1083</v>
       </c>
       <c r="I96" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J96" t="n">
         <v>1998</v>
       </c>
       <c r="K96" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L96" t="b">
         <v>1</v>
       </c>
       <c r="M96" t="n">
-        <v>30.7773452029028</v>
+        <v>32.4929157277508</v>
       </c>
       <c r="N96" t="n">
-        <v>-0.110061073221328</v>
+        <v>-0.222486917305148</v>
       </c>
       <c r="O96" t="n">
-        <v>0.565068360853279</v>
+        <v>0.13531248608327</v>
       </c>
       <c r="P96" t="s">
         <v>23</v>
@@ -5334,7 +5343,7 @@
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C97" t="s">
         <v>46</v>
@@ -5352,31 +5361,31 @@
         <v>69</v>
       </c>
       <c r="H97" t="n">
-        <v>3243</v>
+        <v>3401</v>
       </c>
       <c r="I97" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J97" t="n">
         <v>1998</v>
       </c>
       <c r="K97" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L97" t="b">
         <v>1</v>
       </c>
       <c r="M97" t="n">
-        <v>23.4553860284057</v>
+        <v>25.2522880735145</v>
       </c>
       <c r="N97" t="n">
-        <v>-0.0812939954193062</v>
+        <v>-0.198908341061871</v>
       </c>
       <c r="O97" t="n">
-        <v>0.285425010733889</v>
+        <v>0.00835907721159932</v>
       </c>
       <c r="P97" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98">
@@ -5384,7 +5393,7 @@
         <v>21</v>
       </c>
       <c r="B98" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C98" t="s">
         <v>17</v>
@@ -5424,7 +5433,7 @@
         <v>21</v>
       </c>
       <c r="B99" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C99" t="s">
         <v>22</v>
@@ -5442,28 +5451,28 @@
         <v>43</v>
       </c>
       <c r="H99" t="n">
-        <v>15335</v>
+        <v>15696</v>
       </c>
       <c r="I99" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J99" t="n">
         <v>1997</v>
       </c>
       <c r="K99" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L99" t="b">
         <v>1</v>
       </c>
       <c r="M99" t="n">
-        <v>33.9584135444363</v>
+        <v>32.8521341427534</v>
       </c>
       <c r="N99" t="n">
-        <v>-1.37494852366762</v>
+        <v>-1.29609511066979</v>
       </c>
       <c r="O99" t="n">
-        <v>0.00000000000000000118435840937578</v>
+        <v>0.00000000000000000203314969174893</v>
       </c>
       <c r="P99" t="s">
         <v>21</v>
@@ -5474,7 +5483,7 @@
         <v>21</v>
       </c>
       <c r="B100" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C100" t="s">
         <v>44</v>
@@ -5492,28 +5501,28 @@
         <v>43</v>
       </c>
       <c r="H100" t="n">
-        <v>46085</v>
+        <v>47168</v>
       </c>
       <c r="I100" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J100" t="n">
         <v>1997</v>
       </c>
       <c r="K100" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L100" t="b">
         <v>1</v>
       </c>
       <c r="M100" t="n">
-        <v>0.56669680603956</v>
+        <v>0.5326841297858</v>
       </c>
       <c r="N100" t="n">
-        <v>-0.00764182126267162</v>
+        <v>-0.00517714511339364</v>
       </c>
       <c r="O100" t="n">
-        <v>0.358644973948813</v>
+        <v>0.470825738059433</v>
       </c>
       <c r="P100" t="s">
         <v>23</v>
@@ -5524,7 +5533,7 @@
         <v>21</v>
       </c>
       <c r="B101" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C101" t="s">
         <v>30</v>
@@ -5542,28 +5551,28 @@
         <v>43</v>
       </c>
       <c r="H101" t="n">
-        <v>15370</v>
+        <v>15731</v>
       </c>
       <c r="I101" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J101" t="n">
         <v>1997</v>
       </c>
       <c r="K101" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L101" t="b">
         <v>1</v>
       </c>
       <c r="M101" t="n">
-        <v>0.258159271352049</v>
+        <v>0.248551179646674</v>
       </c>
       <c r="N101" t="n">
-        <v>-0.0123386727165113</v>
+        <v>-0.0116683014031875</v>
       </c>
       <c r="O101" t="n">
-        <v>0.102793063383413</v>
+        <v>0.102660869939191</v>
       </c>
       <c r="P101" t="s">
         <v>23</v>
@@ -5574,7 +5583,7 @@
         <v>21</v>
       </c>
       <c r="B102" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C102" t="s">
         <v>31</v>
@@ -5592,28 +5601,28 @@
         <v>43</v>
       </c>
       <c r="H102" t="n">
-        <v>15352</v>
+        <v>15713</v>
       </c>
       <c r="I102" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J102" t="n">
         <v>1997</v>
       </c>
       <c r="K102" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L102" t="b">
         <v>1</v>
       </c>
       <c r="M102" t="n">
-        <v>5.90038069788748</v>
+        <v>5.71140192386024</v>
       </c>
       <c r="N102" t="n">
-        <v>-0.254356636825512</v>
+        <v>-0.240739223450457</v>
       </c>
       <c r="O102" t="n">
-        <v>0.00447133497124242</v>
+        <v>0.00444282141171528</v>
       </c>
       <c r="P102" t="s">
         <v>21</v>
@@ -5624,7 +5633,7 @@
         <v>21</v>
       </c>
       <c r="B103" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C103" t="s">
         <v>32</v>
@@ -5642,28 +5651,28 @@
         <v>43</v>
       </c>
       <c r="H103" t="n">
-        <v>15371</v>
+        <v>15732</v>
       </c>
       <c r="I103" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J103" t="n">
         <v>1997</v>
       </c>
       <c r="K103" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L103" t="b">
         <v>1</v>
       </c>
       <c r="M103" t="n">
-        <v>1.811310762013</v>
+        <v>1.77734297189416</v>
       </c>
       <c r="N103" t="n">
-        <v>-0.0714913465964634</v>
+        <v>-0.0692776737501035</v>
       </c>
       <c r="O103" t="n">
-        <v>0.0978986642338699</v>
+        <v>0.0975863166895465</v>
       </c>
       <c r="P103" t="s">
         <v>23</v>
@@ -5674,7 +5683,7 @@
         <v>21</v>
       </c>
       <c r="B104" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C104" t="s">
         <v>45</v>
@@ -5692,28 +5701,28 @@
         <v>43</v>
       </c>
       <c r="H104" t="n">
-        <v>16486</v>
+        <v>16847</v>
       </c>
       <c r="I104" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J104" t="n">
         <v>1994</v>
       </c>
       <c r="K104" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L104" t="b">
         <v>1</v>
       </c>
       <c r="M104" t="n">
-        <v>41.8891869476596</v>
+        <v>40.9489597043255</v>
       </c>
       <c r="N104" t="n">
-        <v>-1.66392763552444</v>
+        <v>-1.58756424936694</v>
       </c>
       <c r="O104" t="n">
-        <v>0.0000000000000000000000000596692958277242</v>
+        <v>0.000000000000000000000000375303601367998</v>
       </c>
       <c r="P104" t="s">
         <v>21</v>
@@ -5724,7 +5733,7 @@
         <v>21</v>
       </c>
       <c r="B105" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C105" t="s">
         <v>46</v>
@@ -5764,7 +5773,7 @@
         <v>22</v>
       </c>
       <c r="B106" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C106" t="s">
         <v>17</v>
@@ -5804,7 +5813,7 @@
         <v>22</v>
       </c>
       <c r="B107" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C107" t="s">
         <v>22</v>
@@ -5822,28 +5831,28 @@
         <v>43</v>
       </c>
       <c r="H107" t="n">
-        <v>6103</v>
+        <v>6282</v>
       </c>
       <c r="I107" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J107" t="n">
         <v>1998</v>
       </c>
       <c r="K107" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L107" t="b">
         <v>1</v>
       </c>
       <c r="M107" t="n">
-        <v>30.260073189975</v>
+        <v>28.9769326403196</v>
       </c>
       <c r="N107" t="n">
-        <v>-0.957412867336853</v>
+        <v>-0.860722448728973</v>
       </c>
       <c r="O107" t="n">
-        <v>0.000505629237115056</v>
+        <v>0.000465450211115611</v>
       </c>
       <c r="P107" t="s">
         <v>21</v>
@@ -5854,7 +5863,7 @@
         <v>22</v>
       </c>
       <c r="B108" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C108" t="s">
         <v>44</v>
@@ -5872,31 +5881,31 @@
         <v>43</v>
       </c>
       <c r="H108" t="n">
-        <v>18353</v>
+        <v>18889</v>
       </c>
       <c r="I108" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J108" t="n">
         <v>1998</v>
       </c>
       <c r="K108" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L108" t="b">
         <v>1</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0351222524099453</v>
+        <v>0.0856620604066337</v>
       </c>
       <c r="N108" t="n">
-        <v>0.0166104642627956</v>
+        <v>0.0127947855670413</v>
       </c>
       <c r="O108" t="n">
-        <v>0.0307204374872061</v>
+        <v>0.051190785675201</v>
       </c>
       <c r="P108" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109">
@@ -5904,7 +5913,7 @@
         <v>22</v>
       </c>
       <c r="B109" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C109" t="s">
         <v>30</v>
@@ -5922,28 +5931,28 @@
         <v>43</v>
       </c>
       <c r="H109" t="n">
-        <v>6122</v>
+        <v>6301</v>
       </c>
       <c r="I109" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J109" t="n">
         <v>1998</v>
       </c>
       <c r="K109" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L109" t="b">
         <v>1</v>
       </c>
       <c r="M109" t="n">
-        <v>0.135276090535049</v>
+        <v>0.132184335834842</v>
       </c>
       <c r="N109" t="n">
-        <v>-0.00535557131490304</v>
+        <v>-0.00512498893664424</v>
       </c>
       <c r="O109" t="n">
-        <v>0.120221130121361</v>
+        <v>0.118498663142494</v>
       </c>
       <c r="P109" t="s">
         <v>23</v>
@@ -5954,7 +5963,7 @@
         <v>22</v>
       </c>
       <c r="B110" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C110" t="s">
         <v>31</v>
@@ -5972,28 +5981,28 @@
         <v>43</v>
       </c>
       <c r="H110" t="n">
-        <v>6107</v>
+        <v>6285</v>
       </c>
       <c r="I110" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J110" t="n">
         <v>1998</v>
       </c>
       <c r="K110" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L110" t="b">
         <v>1</v>
       </c>
       <c r="M110" t="n">
-        <v>16.1459732713273</v>
+        <v>15.8420696008404</v>
       </c>
       <c r="N110" t="n">
-        <v>-0.594873625575845</v>
+        <v>-0.572226245026019</v>
       </c>
       <c r="O110" t="n">
-        <v>0.0420163112039449</v>
+        <v>0.0419864765441194</v>
       </c>
       <c r="P110" t="s">
         <v>21</v>
@@ -6004,7 +6013,7 @@
         <v>22</v>
       </c>
       <c r="B111" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C111" t="s">
         <v>32</v>
@@ -6022,28 +6031,28 @@
         <v>43</v>
       </c>
       <c r="H111" t="n">
-        <v>6105</v>
+        <v>6284</v>
       </c>
       <c r="I111" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J111" t="n">
         <v>1998</v>
       </c>
       <c r="K111" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L111" t="b">
         <v>1</v>
       </c>
       <c r="M111" t="n">
-        <v>5.77119914309678</v>
+        <v>5.71565828377176</v>
       </c>
       <c r="N111" t="n">
-        <v>-0.200955575011237</v>
+        <v>-0.196830926179655</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0150449140488188</v>
+        <v>0.0148174763903749</v>
       </c>
       <c r="P111" t="s">
         <v>21</v>
@@ -6054,7 +6063,7 @@
         <v>22</v>
       </c>
       <c r="B112" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C112" t="s">
         <v>45</v>
@@ -6072,28 +6081,28 @@
         <v>43</v>
       </c>
       <c r="H112" t="n">
-        <v>6637</v>
+        <v>6815</v>
       </c>
       <c r="I112" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J112" t="n">
         <v>1994</v>
       </c>
       <c r="K112" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L112" t="b">
         <v>1</v>
       </c>
       <c r="M112" t="n">
-        <v>53.3243549530307</v>
+        <v>52.3021115018918</v>
       </c>
       <c r="N112" t="n">
-        <v>-1.7835918245386</v>
+        <v>-1.69151017812222</v>
       </c>
       <c r="O112" t="n">
-        <v>0.000000000000000000116273353682397</v>
+        <v>0.0000000000000000000403137535049784</v>
       </c>
       <c r="P112" t="s">
         <v>21</v>
@@ -6104,7 +6113,7 @@
         <v>22</v>
       </c>
       <c r="B113" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C113" t="s">
         <v>46</v>
@@ -6144,7 +6153,7 @@
         <v>23</v>
       </c>
       <c r="B114" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C114" t="s">
         <v>17</v>
@@ -6184,7 +6193,7 @@
         <v>23</v>
       </c>
       <c r="B115" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C115" t="s">
         <v>22</v>
@@ -6196,34 +6205,34 @@
         <v>2</v>
       </c>
       <c r="F115" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G115" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H115" t="n">
-        <v>5349</v>
+        <v>5685</v>
       </c>
       <c r="I115" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J115" t="n">
         <v>1997</v>
       </c>
       <c r="K115" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L115" t="b">
         <v>1</v>
       </c>
       <c r="M115" t="n">
-        <v>10.0428716440852</v>
+        <v>9.29711141295766</v>
       </c>
       <c r="N115" t="n">
-        <v>-0.274551820170871</v>
+        <v>-0.212868634808103</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0000140208174383894</v>
+        <v>0.00405168065247469</v>
       </c>
       <c r="P115" t="s">
         <v>21</v>
@@ -6234,7 +6243,7 @@
         <v>23</v>
       </c>
       <c r="B116" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C116" t="s">
         <v>44</v>
@@ -6246,34 +6255,34 @@
         <v>2</v>
       </c>
       <c r="F116" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G116" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H116" t="n">
-        <v>16096</v>
+        <v>17103</v>
       </c>
       <c r="I116" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J116" t="n">
         <v>1997</v>
       </c>
       <c r="K116" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L116" t="b">
         <v>1</v>
       </c>
       <c r="M116" t="n">
-        <v>1.82583429827213</v>
+        <v>1.70960213659336</v>
       </c>
       <c r="N116" t="n">
-        <v>-0.036216022132318</v>
+        <v>-0.0289760355144765</v>
       </c>
       <c r="O116" t="n">
-        <v>0.0166046336616472</v>
+        <v>0.0448824668545934</v>
       </c>
       <c r="P116" t="s">
         <v>21</v>
@@ -6284,7 +6293,7 @@
         <v>23</v>
       </c>
       <c r="B117" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C117" t="s">
         <v>30</v>
@@ -6302,16 +6311,16 @@
         <v>43</v>
       </c>
       <c r="H117" t="n">
-        <v>5372</v>
+        <v>5708</v>
       </c>
       <c r="I117" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J117" t="n">
         <v>1997</v>
       </c>
       <c r="K117" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L117" t="b">
         <v>1</v>
@@ -6328,7 +6337,7 @@
         <v>23</v>
       </c>
       <c r="B118" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C118" t="s">
         <v>31</v>
@@ -6340,34 +6349,34 @@
         <v>2</v>
       </c>
       <c r="F118" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G118" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H118" t="n">
-        <v>5362</v>
+        <v>5698</v>
       </c>
       <c r="I118" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J118" t="n">
         <v>1997</v>
       </c>
       <c r="K118" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L118" t="b">
         <v>1</v>
       </c>
       <c r="M118" t="n">
-        <v>17.5046080594959</v>
+        <v>17.0121024167292</v>
       </c>
       <c r="N118" t="n">
-        <v>-0.632837661608039</v>
+        <v>-0.601666634628676</v>
       </c>
       <c r="O118" t="n">
-        <v>0.000162475990051339</v>
+        <v>0.000235157766530186</v>
       </c>
       <c r="P118" t="s">
         <v>21</v>
@@ -6378,7 +6387,7 @@
         <v>23</v>
       </c>
       <c r="B119" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C119" t="s">
         <v>32</v>
@@ -6390,34 +6399,34 @@
         <v>2</v>
       </c>
       <c r="F119" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G119" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H119" t="n">
-        <v>5368</v>
+        <v>5704</v>
       </c>
       <c r="I119" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J119" t="n">
         <v>1997</v>
       </c>
       <c r="K119" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L119" t="b">
         <v>1</v>
       </c>
       <c r="M119" t="n">
-        <v>3.08836925196976</v>
+        <v>3.15078674404518</v>
       </c>
       <c r="N119" t="n">
-        <v>-0.0852404575724867</v>
+        <v>-0.0902733509283717</v>
       </c>
       <c r="O119" t="n">
-        <v>0.0610028191067083</v>
+        <v>0.0629403377939821</v>
       </c>
       <c r="P119" t="s">
         <v>23</v>
@@ -6428,7 +6437,7 @@
         <v>23</v>
       </c>
       <c r="B120" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C120" t="s">
         <v>45</v>
@@ -6446,28 +6455,28 @@
         <v>43</v>
       </c>
       <c r="H120" t="n">
-        <v>5894</v>
+        <v>6231</v>
       </c>
       <c r="I120" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J120" t="n">
         <v>1994</v>
       </c>
       <c r="K120" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L120" t="b">
         <v>1</v>
       </c>
       <c r="M120" t="n">
-        <v>34.3511026171421</v>
+        <v>33.1820675646515</v>
       </c>
       <c r="N120" t="n">
-        <v>-1.02491487008742</v>
+        <v>-0.932472937767339</v>
       </c>
       <c r="O120" t="n">
-        <v>0.00000000000538152785609029</v>
+        <v>0.000000000909265706738429</v>
       </c>
       <c r="P120" t="s">
         <v>21</v>
@@ -6478,7 +6487,7 @@
         <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C121" t="s">
         <v>46</v>
@@ -6490,10 +6499,10 @@
         <v>2</v>
       </c>
       <c r="F121" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G121" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -6518,7 +6527,7 @@
         <v>25</v>
       </c>
       <c r="B122" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C122" t="s">
         <v>54</v>
@@ -6536,28 +6545,28 @@
         <v>69</v>
       </c>
       <c r="H122" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I122" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J122" t="n">
         <v>1999</v>
       </c>
       <c r="K122" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L122" t="b">
         <v>1</v>
       </c>
       <c r="M122" t="n">
-        <v>-1.56765557050886</v>
+        <v>-1.17225767267301</v>
       </c>
       <c r="N122" t="n">
-        <v>0.493183992281268</v>
+        <v>0.471000050425961</v>
       </c>
       <c r="O122" t="n">
-        <v>0.242098798449925</v>
+        <v>0.260006328269154</v>
       </c>
       <c r="P122" t="s">
         <v>23</v>
@@ -6568,7 +6577,7 @@
         <v>25</v>
       </c>
       <c r="B123" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C123" t="s">
         <v>17</v>
@@ -6586,28 +6595,28 @@
         <v>69</v>
       </c>
       <c r="H123" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I123" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J123" t="n">
         <v>1999</v>
       </c>
       <c r="K123" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L123" t="b">
         <v>1</v>
       </c>
       <c r="M123" t="n">
-        <v>22.6455077411465</v>
+        <v>22.5309932608729</v>
       </c>
       <c r="N123" t="n">
-        <v>-0.552783817917253</v>
+        <v>-0.54427506679597</v>
       </c>
       <c r="O123" t="n">
-        <v>0.0241946911997563</v>
+        <v>0.0227362276911171</v>
       </c>
       <c r="P123" t="s">
         <v>21</v>
@@ -6618,7 +6627,7 @@
         <v>25</v>
       </c>
       <c r="B124" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C124" t="s">
         <v>22</v>
@@ -6630,34 +6639,34 @@
         <v>2</v>
       </c>
       <c r="F124" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G124" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H124" t="n">
-        <v>754</v>
+        <v>960</v>
       </c>
       <c r="I124" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J124" t="n">
         <v>1998</v>
       </c>
       <c r="K124" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L124" t="b">
         <v>1</v>
       </c>
       <c r="M124" t="n">
-        <v>29.6400948089993</v>
+        <v>28.6856935920826</v>
       </c>
       <c r="N124" t="n">
-        <v>0.101279488903686</v>
+        <v>0.18877470936749</v>
       </c>
       <c r="O124" t="n">
-        <v>0.572650768759872</v>
+        <v>0.598317226968351</v>
       </c>
       <c r="P124" t="s">
         <v>23</v>
@@ -6668,7 +6677,7 @@
         <v>25</v>
       </c>
       <c r="B125" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -6686,16 +6695,16 @@
         <v>69</v>
       </c>
       <c r="H125" t="n">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="I125" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J125" t="n">
         <v>1998</v>
       </c>
       <c r="K125" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L125" t="b">
         <v>1</v>
@@ -6712,7 +6721,7 @@
         <v>25</v>
       </c>
       <c r="B126" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C126" t="s">
         <v>31</v>
@@ -6724,34 +6733,34 @@
         <v>2</v>
       </c>
       <c r="F126" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G126" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H126" t="n">
-        <v>337</v>
+        <v>500</v>
       </c>
       <c r="I126" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J126" t="n">
         <v>1998</v>
       </c>
       <c r="K126" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L126" t="b">
         <v>1</v>
       </c>
       <c r="M126" t="n">
-        <v>7.41867607177513</v>
+        <v>6.7838230486559</v>
       </c>
       <c r="N126" t="n">
-        <v>-0.0304141093227534</v>
+        <v>-0.00866126850207299</v>
       </c>
       <c r="O126" t="n">
-        <v>0.911829922406253</v>
+        <v>0.962696671246064</v>
       </c>
       <c r="P126" t="s">
         <v>23</v>
@@ -6762,7 +6771,7 @@
         <v>25</v>
       </c>
       <c r="B127" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C127" t="s">
         <v>32</v>
@@ -6774,34 +6783,34 @@
         <v>2</v>
       </c>
       <c r="F127" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G127" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H127" t="n">
-        <v>490</v>
+        <v>671</v>
       </c>
       <c r="I127" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J127" t="n">
         <v>1998</v>
       </c>
       <c r="K127" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L127" t="b">
         <v>1</v>
       </c>
       <c r="M127" t="n">
-        <v>8.23586299833818</v>
+        <v>4.31520743264204</v>
       </c>
       <c r="N127" t="n">
-        <v>0.12737536461918</v>
+        <v>0.303859009487904</v>
       </c>
       <c r="O127" t="n">
-        <v>0.792885598776405</v>
+        <v>0.453703957656639</v>
       </c>
       <c r="P127" t="s">
         <v>23</v>
@@ -6812,7 +6821,7 @@
         <v>25</v>
       </c>
       <c r="B128" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C128" t="s">
         <v>46</v>
@@ -6824,34 +6833,34 @@
         <v>2</v>
       </c>
       <c r="F128" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G128" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H128" t="n">
-        <v>964</v>
+        <v>1181</v>
       </c>
       <c r="I128" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J128" t="n">
         <v>1998</v>
       </c>
       <c r="K128" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L128" t="b">
         <v>1</v>
       </c>
       <c r="M128" t="n">
-        <v>30.2821066453728</v>
+        <v>26.6419579439412</v>
       </c>
       <c r="N128" t="n">
-        <v>0.33206831595012</v>
+        <v>0.549443451096866</v>
       </c>
       <c r="O128" t="n">
-        <v>0.390788542903914</v>
+        <v>0.246787900026726</v>
       </c>
       <c r="P128" t="s">
         <v>23</v>
@@ -6859,13 +6868,13 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B129" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C129" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D129" t="s">
         <v>18</v>
@@ -6874,19 +6883,23 @@
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="G129" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129"/>
-      <c r="K129"/>
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K129" t="n">
+        <v>2024</v>
+      </c>
       <c r="L129" t="b">
         <v>0</v>
       </c>
@@ -6899,113 +6912,101 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
+        <v>26</v>
+      </c>
+      <c r="B130" t="s">
+        <v>94</v>
+      </c>
+      <c r="C130" t="s">
+        <v>24</v>
+      </c>
+      <c r="D130" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1</v>
+      </c>
+      <c r="F130" t="s">
+        <v>95</v>
+      </c>
+      <c r="G130" t="s">
+        <v>96</v>
+      </c>
+      <c r="H130" t="n">
+        <v>46</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K130" t="n">
+        <v>2024</v>
+      </c>
+      <c r="L130" t="b">
+        <v>0</v>
+      </c>
+      <c r="M130"/>
+      <c r="N130"/>
+      <c r="O130"/>
+      <c r="P130" t="s">
         <v>27</v>
-      </c>
-      <c r="B130" t="s">
-        <v>92</v>
-      </c>
-      <c r="C130" t="s">
-        <v>22</v>
-      </c>
-      <c r="D130" t="s">
-        <v>18</v>
-      </c>
-      <c r="E130" t="n">
-        <v>3</v>
-      </c>
-      <c r="F130" t="s">
-        <v>93</v>
-      </c>
-      <c r="G130" t="s">
-        <v>94</v>
-      </c>
-      <c r="H130" t="n">
-        <v>749</v>
-      </c>
-      <c r="I130" t="n">
-        <v>24</v>
-      </c>
-      <c r="J130" t="n">
-        <v>1999</v>
-      </c>
-      <c r="K130" t="n">
-        <v>2023</v>
-      </c>
-      <c r="L130" t="b">
-        <v>1</v>
-      </c>
-      <c r="M130" t="n">
-        <v>20.1590395891636</v>
-      </c>
-      <c r="N130" t="n">
-        <v>-0.57796828720457</v>
-      </c>
-      <c r="O130" t="n">
-        <v>0.0000000933341113484904</v>
-      </c>
-      <c r="P130" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
+        <v>26</v>
+      </c>
+      <c r="B131" t="s">
+        <v>94</v>
+      </c>
+      <c r="C131" t="s">
+        <v>30</v>
+      </c>
+      <c r="D131" t="s">
+        <v>18</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1</v>
+      </c>
+      <c r="F131" t="s">
+        <v>95</v>
+      </c>
+      <c r="G131" t="s">
+        <v>96</v>
+      </c>
+      <c r="H131" t="n">
+        <v>46</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K131" t="n">
+        <v>2024</v>
+      </c>
+      <c r="L131" t="b">
+        <v>0</v>
+      </c>
+      <c r="M131"/>
+      <c r="N131"/>
+      <c r="O131"/>
+      <c r="P131" t="s">
         <v>27</v>
-      </c>
-      <c r="B131" t="s">
-        <v>92</v>
-      </c>
-      <c r="C131" t="s">
-        <v>44</v>
-      </c>
-      <c r="D131" t="s">
-        <v>18</v>
-      </c>
-      <c r="E131" t="n">
-        <v>3</v>
-      </c>
-      <c r="F131" t="s">
-        <v>93</v>
-      </c>
-      <c r="G131" t="s">
-        <v>94</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2265</v>
-      </c>
-      <c r="I131" t="n">
-        <v>24</v>
-      </c>
-      <c r="J131" t="n">
-        <v>1999</v>
-      </c>
-      <c r="K131" t="n">
-        <v>2023</v>
-      </c>
-      <c r="L131" t="b">
-        <v>1</v>
-      </c>
-      <c r="M131" t="n">
-        <v>1.70783248789717</v>
-      </c>
-      <c r="N131" t="n">
-        <v>-0.0392037496212865</v>
-      </c>
-      <c r="O131" t="n">
-        <v>0.00422972089182937</v>
-      </c>
-      <c r="P131" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B132" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D132" t="s">
         <v>18</v>
@@ -7014,131 +7015,119 @@
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="G132" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="H132" t="n">
-        <v>756</v>
+        <v>46</v>
       </c>
       <c r="I132" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>1999</v>
+        <v>2024</v>
       </c>
       <c r="K132" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M132"/>
       <c r="N132"/>
       <c r="O132"/>
       <c r="P132" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
+        <v>26</v>
+      </c>
+      <c r="B133" t="s">
+        <v>94</v>
+      </c>
+      <c r="C133" t="s">
+        <v>32</v>
+      </c>
+      <c r="D133" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1</v>
+      </c>
+      <c r="F133" t="s">
+        <v>95</v>
+      </c>
+      <c r="G133" t="s">
+        <v>96</v>
+      </c>
+      <c r="H133" t="n">
+        <v>236</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K133" t="n">
+        <v>2024</v>
+      </c>
+      <c r="L133" t="b">
+        <v>0</v>
+      </c>
+      <c r="M133"/>
+      <c r="N133"/>
+      <c r="O133"/>
+      <c r="P133" t="s">
         <v>27</v>
-      </c>
-      <c r="B133" t="s">
-        <v>92</v>
-      </c>
-      <c r="C133" t="s">
-        <v>31</v>
-      </c>
-      <c r="D133" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" t="n">
-        <v>3</v>
-      </c>
-      <c r="F133" t="s">
-        <v>93</v>
-      </c>
-      <c r="G133" t="s">
-        <v>94</v>
-      </c>
-      <c r="H133" t="n">
-        <v>756</v>
-      </c>
-      <c r="I133" t="n">
-        <v>24</v>
-      </c>
-      <c r="J133" t="n">
-        <v>1999</v>
-      </c>
-      <c r="K133" t="n">
-        <v>2023</v>
-      </c>
-      <c r="L133" t="b">
-        <v>1</v>
-      </c>
-      <c r="M133" t="n">
-        <v>2.53507197792341</v>
-      </c>
-      <c r="N133" t="n">
-        <v>-0.0774221313591295</v>
-      </c>
-      <c r="O133" t="n">
-        <v>0.348499348433065</v>
-      </c>
-      <c r="P133" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
+        <v>26</v>
+      </c>
+      <c r="B134" t="s">
+        <v>94</v>
+      </c>
+      <c r="C134" t="s">
+        <v>46</v>
+      </c>
+      <c r="D134" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1</v>
+      </c>
+      <c r="F134" t="s">
+        <v>95</v>
+      </c>
+      <c r="G134" t="s">
+        <v>96</v>
+      </c>
+      <c r="H134" t="n">
+        <v>239</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K134" t="n">
+        <v>2024</v>
+      </c>
+      <c r="L134" t="b">
+        <v>0</v>
+      </c>
+      <c r="M134"/>
+      <c r="N134"/>
+      <c r="O134"/>
+      <c r="P134" t="s">
         <v>27</v>
-      </c>
-      <c r="B134" t="s">
-        <v>92</v>
-      </c>
-      <c r="C134" t="s">
-        <v>32</v>
-      </c>
-      <c r="D134" t="s">
-        <v>18</v>
-      </c>
-      <c r="E134" t="n">
-        <v>3</v>
-      </c>
-      <c r="F134" t="s">
-        <v>93</v>
-      </c>
-      <c r="G134" t="s">
-        <v>94</v>
-      </c>
-      <c r="H134" t="n">
-        <v>756</v>
-      </c>
-      <c r="I134" t="n">
-        <v>24</v>
-      </c>
-      <c r="J134" t="n">
-        <v>1999</v>
-      </c>
-      <c r="K134" t="n">
-        <v>2023</v>
-      </c>
-      <c r="L134" t="b">
-        <v>1</v>
-      </c>
-      <c r="M134" t="n">
-        <v>0.103364288553319</v>
-      </c>
-      <c r="N134" t="n">
-        <v>-0.00472392111203621</v>
-      </c>
-      <c r="O134" t="n">
-        <v>0.300737241250385</v>
-      </c>
-      <c r="P134" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="135">
@@ -7146,10 +7135,10 @@
         <v>27</v>
       </c>
       <c r="B135" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C135" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D135" t="s">
         <v>18</v>
@@ -7164,31 +7153,21 @@
         <v>43</v>
       </c>
       <c r="H135" t="n">
-        <v>763</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>24</v>
-      </c>
-      <c r="J135" t="n">
-        <v>1999</v>
-      </c>
-      <c r="K135" t="n">
-        <v>2023</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135"/>
+      <c r="K135"/>
       <c r="L135" t="b">
-        <v>1</v>
-      </c>
-      <c r="M135" t="n">
-        <v>27.6035481734169</v>
-      </c>
-      <c r="N135" t="n">
-        <v>-0.791326367110345</v>
-      </c>
-      <c r="O135" t="n">
-        <v>0.00000000000000278584625091632</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
       <c r="P135" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136">
@@ -7196,10 +7175,10 @@
         <v>27</v>
       </c>
       <c r="B136" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C136" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D136" t="s">
         <v>18</v>
@@ -7208,82 +7187,98 @@
         <v>3</v>
       </c>
       <c r="F136" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G136" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>787</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136"/>
-      <c r="K136"/>
+        <v>25</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1999</v>
+      </c>
+      <c r="K136" t="n">
+        <v>2024</v>
+      </c>
       <c r="L136" t="b">
-        <v>0</v>
-      </c>
-      <c r="M136"/>
-      <c r="N136"/>
-      <c r="O136"/>
+        <v>1</v>
+      </c>
+      <c r="M136" t="n">
+        <v>20.2590676274871</v>
+      </c>
+      <c r="N136" t="n">
+        <v>-0.585651209477301</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0.000000000612876949887699</v>
+      </c>
       <c r="P136" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B137" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C137" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D137" t="s">
         <v>18</v>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F137" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="G137" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2379</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="J137" t="n">
-        <v>2021</v>
+        <v>1999</v>
       </c>
       <c r="K137" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="L137" t="b">
-        <v>0</v>
-      </c>
-      <c r="M137"/>
-      <c r="N137"/>
-      <c r="O137"/>
+        <v>1</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1.73766058924645</v>
+      </c>
+      <c r="N137" t="n">
+        <v>-0.0414814042766983</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0.00089542577025922</v>
+      </c>
       <c r="P137" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B138" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C138" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D138" t="s">
         <v>18</v>
@@ -7292,84 +7287,78 @@
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G138" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="H138" t="n">
-        <v>215</v>
+        <v>794</v>
       </c>
       <c r="I138" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J138" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="K138" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L138" t="b">
         <v>1</v>
       </c>
-      <c r="M138" t="n">
-        <v>-5.16240112380491</v>
-      </c>
-      <c r="N138" t="n">
-        <v>1.04625656016125</v>
-      </c>
-      <c r="O138" t="n">
-        <v>0.132782101809919</v>
-      </c>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
       <c r="P138" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B139" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C139" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D139" t="s">
         <v>18</v>
       </c>
       <c r="E139" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F139" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="G139" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="H139" t="n">
-        <v>562</v>
+        <v>794</v>
       </c>
       <c r="I139" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J139" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="K139" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L139" t="b">
         <v>1</v>
       </c>
       <c r="M139" t="n">
-        <v>19.5159506406282</v>
+        <v>2.54661101365288</v>
       </c>
       <c r="N139" t="n">
-        <v>0.0923619652032416</v>
+        <v>-0.0783803494115895</v>
       </c>
       <c r="O139" t="n">
-        <v>0.853453801539655</v>
+        <v>0.341034362519376</v>
       </c>
       <c r="P139" t="s">
         <v>23</v>
@@ -7377,57 +7366,63 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B140" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C140" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="D140" t="s">
         <v>18</v>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F140" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="G140" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="H140" t="n">
-        <v>4</v>
+        <v>794</v>
       </c>
       <c r="I140" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="J140" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="K140" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L140" t="b">
-        <v>0</v>
-      </c>
-      <c r="M140"/>
-      <c r="N140"/>
-      <c r="O140"/>
+        <v>1</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0.098278249125969</v>
+      </c>
+      <c r="N140" t="n">
+        <v>-0.00433663859300799</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0.300757978603717</v>
+      </c>
       <c r="P140" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B141" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C141" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D141" t="s">
         <v>18</v>
@@ -7436,81 +7431,77 @@
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G141" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="H141" t="n">
-        <v>20</v>
+        <v>801</v>
       </c>
       <c r="I141" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J141" t="n">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="K141" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L141" t="b">
         <v>1</v>
       </c>
       <c r="M141" t="n">
-        <v>2.6422813979672</v>
+        <v>27.7613215210498</v>
       </c>
       <c r="N141" t="n">
-        <v>0.0681648015932544</v>
+        <v>-0.805416122805826</v>
       </c>
       <c r="O141" t="n">
-        <v>0.780887509049103</v>
+        <v>0.000000000000000111937158369317</v>
       </c>
       <c r="P141" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B142" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C142" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D142" t="s">
         <v>18</v>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F142" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="G142" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="H142" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>20</v>
-      </c>
-      <c r="J142" t="n">
-        <v>2000</v>
-      </c>
-      <c r="K142" t="n">
-        <v>2023</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142"/>
+      <c r="K142"/>
       <c r="L142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M142"/>
       <c r="N142"/>
       <c r="O142"/>
       <c r="P142" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="143">
@@ -7518,10 +7509,10 @@
         <v>28</v>
       </c>
       <c r="B143" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C143" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D143" t="s">
         <v>18</v>
@@ -7536,16 +7527,16 @@
         <v>69</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J143" t="n">
-        <v>2006</v>
+        <v>2021</v>
       </c>
       <c r="K143" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="L143" t="b">
         <v>0</v>
@@ -7562,10 +7553,10 @@
         <v>28</v>
       </c>
       <c r="B144" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C144" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D144" t="s">
         <v>18</v>
@@ -7580,28 +7571,28 @@
         <v>69</v>
       </c>
       <c r="H144" t="n">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c r="I144" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J144" t="n">
         <v>2000</v>
       </c>
       <c r="K144" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L144" t="b">
         <v>1</v>
       </c>
       <c r="M144" t="n">
-        <v>24.6267852776507</v>
+        <v>-5.87122204063504</v>
       </c>
       <c r="N144" t="n">
-        <v>-0.342192917464367</v>
+        <v>1.10079105954384</v>
       </c>
       <c r="O144" t="n">
-        <v>0.364777658208764</v>
+        <v>0.104749045024336</v>
       </c>
       <c r="P144" t="s">
         <v>23</v>
@@ -7612,46 +7603,46 @@
         <v>28</v>
       </c>
       <c r="B145" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C145" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D145" t="s">
         <v>18</v>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F145" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="G145" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="H145" t="n">
-        <v>680</v>
+        <v>570</v>
       </c>
       <c r="I145" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J145" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="K145" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L145" t="b">
         <v>1</v>
       </c>
       <c r="M145" t="n">
-        <v>31.2507017132567</v>
+        <v>19.6311429839962</v>
       </c>
       <c r="N145" t="n">
-        <v>-0.371513851491778</v>
+        <v>0.076522796846791</v>
       </c>
       <c r="O145" t="n">
-        <v>0.314733784998854</v>
+        <v>0.880505716452414</v>
       </c>
       <c r="P145" t="s">
         <v>23</v>
@@ -7662,10 +7653,10 @@
         <v>28</v>
       </c>
       <c r="B146" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C146" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D146" t="s">
         <v>18</v>
@@ -7683,13 +7674,13 @@
         <v>4</v>
       </c>
       <c r="I146" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J146" t="n">
         <v>2007</v>
       </c>
       <c r="K146" t="n">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="L146" t="b">
         <v>0</v>
@@ -7703,13 +7694,13 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B147" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C147" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D147" t="s">
         <v>18</v>
@@ -7718,88 +7709,92 @@
         <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="G147" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147"/>
-      <c r="K147"/>
+        <v>11</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2010</v>
+      </c>
+      <c r="K147" t="n">
+        <v>2023</v>
+      </c>
       <c r="L147" t="b">
-        <v>0</v>
-      </c>
-      <c r="M147"/>
-      <c r="N147"/>
-      <c r="O147"/>
+        <v>1</v>
+      </c>
+      <c r="M147" t="n">
+        <v>2.64228139828149</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0.068164801565837</v>
+      </c>
+      <c r="O147" t="n">
+        <v>0.780887509020257</v>
+      </c>
       <c r="P147" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
+        <v>28</v>
+      </c>
+      <c r="B148" t="s">
+        <v>100</v>
+      </c>
+      <c r="C148" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" t="s">
+        <v>18</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1</v>
+      </c>
+      <c r="F148" t="s">
+        <v>68</v>
+      </c>
+      <c r="G148" t="s">
+        <v>69</v>
+      </c>
+      <c r="H148" t="n">
+        <v>112</v>
+      </c>
+      <c r="I148" t="n">
+        <v>21</v>
+      </c>
+      <c r="J148" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="L148" t="b">
+        <v>1</v>
+      </c>
+      <c r="M148"/>
+      <c r="N148"/>
+      <c r="O148"/>
+      <c r="P148" t="s">
         <v>29</v>
-      </c>
-      <c r="B148" t="s">
-        <v>96</v>
-      </c>
-      <c r="C148" t="s">
-        <v>22</v>
-      </c>
-      <c r="D148" t="s">
-        <v>18</v>
-      </c>
-      <c r="E148" t="n">
-        <v>1</v>
-      </c>
-      <c r="F148" t="s">
-        <v>42</v>
-      </c>
-      <c r="G148" t="s">
-        <v>43</v>
-      </c>
-      <c r="H148" t="n">
-        <v>618</v>
-      </c>
-      <c r="I148" t="n">
-        <v>15</v>
-      </c>
-      <c r="J148" t="n">
-        <v>2009</v>
-      </c>
-      <c r="K148" t="n">
-        <v>2023</v>
-      </c>
-      <c r="L148" t="b">
-        <v>1</v>
-      </c>
-      <c r="M148" t="n">
-        <v>29.1689400389233</v>
-      </c>
-      <c r="N148" t="n">
-        <v>-1.09027315470848</v>
-      </c>
-      <c r="O148" t="n">
-        <v>0.00569604015350604</v>
-      </c>
-      <c r="P148" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B149" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C149" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D149" t="s">
         <v>18</v>
@@ -7808,48 +7803,42 @@
         <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="G149" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H149" t="n">
-        <v>1854</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J149" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="K149" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="L149" t="b">
-        <v>1</v>
-      </c>
-      <c r="M149" t="n">
-        <v>-0.0543478444805687</v>
-      </c>
-      <c r="N149" t="n">
-        <v>0.00285314458817604</v>
-      </c>
-      <c r="O149" t="n">
-        <v>0.320803935404908</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M149"/>
+      <c r="N149"/>
+      <c r="O149"/>
       <c r="P149" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B150" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C150" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D150" t="s">
         <v>18</v>
@@ -7858,86 +7847,88 @@
         <v>1</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="H150" t="n">
-        <v>618</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>15</v>
-      </c>
-      <c r="J150" t="n">
-        <v>2009</v>
-      </c>
-      <c r="K150" t="n">
-        <v>2023</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150"/>
+      <c r="K150"/>
       <c r="L150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M150"/>
       <c r="N150"/>
       <c r="O150"/>
       <c r="P150" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B151" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C151" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D151" t="s">
         <v>18</v>
       </c>
       <c r="E151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="G151" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="H151" t="n">
-        <v>618</v>
+        <v>172</v>
       </c>
       <c r="I151" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J151" t="n">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="K151" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L151" t="b">
         <v>1</v>
       </c>
-      <c r="M151"/>
-      <c r="N151"/>
-      <c r="O151"/>
+      <c r="M151" t="n">
+        <v>26.6035655592804</v>
+      </c>
+      <c r="N151" t="n">
+        <v>-0.476510204710198</v>
+      </c>
+      <c r="O151" t="n">
+        <v>0.158331973909321</v>
+      </c>
       <c r="P151" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B152" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C152" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D152" t="s">
         <v>18</v>
@@ -7946,42 +7937,48 @@
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="G152" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H152" t="n">
-        <v>618</v>
+        <v>719</v>
       </c>
       <c r="I152" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J152" t="n">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="K152" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L152" t="b">
         <v>1</v>
       </c>
-      <c r="M152"/>
-      <c r="N152"/>
-      <c r="O152"/>
+      <c r="M152" t="n">
+        <v>33.4466492799093</v>
+      </c>
+      <c r="N152" t="n">
+        <v>-0.526271498290103</v>
+      </c>
+      <c r="O152" t="n">
+        <v>0.134250711812301</v>
+      </c>
       <c r="P152" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B153" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C153" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="D153" t="s">
         <v>18</v>
@@ -7990,37 +7987,31 @@
         <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H153" t="n">
-        <v>618</v>
+        <v>4</v>
       </c>
       <c r="I153" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J153" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="K153" t="n">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="L153" t="b">
-        <v>1</v>
-      </c>
-      <c r="M153" t="n">
-        <v>29.1099999916636</v>
-      </c>
-      <c r="N153" t="n">
-        <v>-1.08714041208125</v>
-      </c>
-      <c r="O153" t="n">
-        <v>0.0054828097292007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M153"/>
+      <c r="N153"/>
+      <c r="O153"/>
       <c r="P153" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="154">
@@ -8028,10 +8019,10 @@
         <v>29</v>
       </c>
       <c r="B154" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C154" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D154" t="s">
         <v>18</v>
@@ -8065,13 +8056,13 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B155" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C155" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D155" t="s">
         <v>18</v>
@@ -8080,19 +8071,19 @@
         <v>1</v>
       </c>
       <c r="F155" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G155" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H155" t="n">
-        <v>3587</v>
+        <v>651</v>
       </c>
       <c r="I155" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J155" t="n">
-        <v>1997</v>
+        <v>2009</v>
       </c>
       <c r="K155" t="n">
         <v>2024</v>
@@ -8101,13 +8092,13 @@
         <v>1</v>
       </c>
       <c r="M155" t="n">
-        <v>19.1499710125081</v>
+        <v>23.024903019627</v>
       </c>
       <c r="N155" t="n">
-        <v>-0.316165790492879</v>
+        <v>-0.773531254197164</v>
       </c>
       <c r="O155" t="n">
-        <v>0.0160054759186971</v>
+        <v>0.0202146218231972</v>
       </c>
       <c r="P155" t="s">
         <v>21</v>
@@ -8115,13 +8106,13 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B156" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C156" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D156" t="s">
         <v>18</v>
@@ -8130,19 +8121,19 @@
         <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H156" t="n">
-        <v>1902</v>
+        <v>1953</v>
       </c>
       <c r="I156" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J156" t="n">
-        <v>1997</v>
+        <v>2009</v>
       </c>
       <c r="K156" t="n">
         <v>2024</v>
@@ -8151,13 +8142,13 @@
         <v>1</v>
       </c>
       <c r="M156" t="n">
-        <v>10.2243009705922</v>
+        <v>-0.0711150985564275</v>
       </c>
       <c r="N156" t="n">
-        <v>-0.0105459236045152</v>
+        <v>0.00372022338125094</v>
       </c>
       <c r="O156" t="n">
-        <v>0.870068914243278</v>
+        <v>0.167941461820667</v>
       </c>
       <c r="P156" t="s">
         <v>23</v>
@@ -8165,13 +8156,13 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B157" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C157" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D157" t="s">
         <v>18</v>
@@ -8180,19 +8171,19 @@
         <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H157" t="n">
-        <v>540</v>
+        <v>651</v>
       </c>
       <c r="I157" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J157" t="n">
-        <v>1997</v>
+        <v>2009</v>
       </c>
       <c r="K157" t="n">
         <v>2024</v>
@@ -8200,28 +8191,22 @@
       <c r="L157" t="b">
         <v>1</v>
       </c>
-      <c r="M157" t="n">
-        <v>8.34583789184027</v>
-      </c>
-      <c r="N157" t="n">
-        <v>0.122351755025816</v>
-      </c>
-      <c r="O157" t="n">
-        <v>0.2948394407875</v>
-      </c>
+      <c r="M157"/>
+      <c r="N157"/>
+      <c r="O157"/>
       <c r="P157" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B158" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C158" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D158" t="s">
         <v>18</v>
@@ -8230,19 +8215,19 @@
         <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H158" t="n">
-        <v>87</v>
+        <v>651</v>
       </c>
       <c r="I158" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J158" t="n">
-        <v>1998</v>
+        <v>2009</v>
       </c>
       <c r="K158" t="n">
         <v>2024</v>
@@ -8259,13 +8244,13 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C159" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D159" t="s">
         <v>18</v>
@@ -8274,19 +8259,19 @@
         <v>1</v>
       </c>
       <c r="F159" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H159" t="n">
-        <v>32</v>
+        <v>651</v>
       </c>
       <c r="I159" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J159" t="n">
-        <v>1997</v>
+        <v>2009</v>
       </c>
       <c r="K159" t="n">
         <v>2024</v>
@@ -8294,28 +8279,22 @@
       <c r="L159" t="b">
         <v>1</v>
       </c>
-      <c r="M159" t="n">
-        <v>-9.22637781041268</v>
-      </c>
-      <c r="N159" t="n">
-        <v>0.704869411466087</v>
-      </c>
-      <c r="O159" t="n">
-        <v>0.746716565292955</v>
-      </c>
+      <c r="M159"/>
+      <c r="N159"/>
+      <c r="O159"/>
       <c r="P159" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B160" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C160" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D160" t="s">
         <v>18</v>
@@ -8324,19 +8303,19 @@
         <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G160" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H160" t="n">
-        <v>2334</v>
+        <v>651</v>
       </c>
       <c r="I160" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J160" t="n">
-        <v>1997</v>
+        <v>2009</v>
       </c>
       <c r="K160" t="n">
         <v>2024</v>
@@ -8345,13 +8324,13 @@
         <v>1</v>
       </c>
       <c r="M160" t="n">
-        <v>44.0720944868836</v>
+        <v>22.9814232107145</v>
       </c>
       <c r="N160" t="n">
-        <v>-1.05221479267901</v>
+        <v>-0.771190976570732</v>
       </c>
       <c r="O160" t="n">
-        <v>0.00956357992739277</v>
+        <v>0.0197959930482142</v>
       </c>
       <c r="P160" t="s">
         <v>21</v>
@@ -8359,13 +8338,13 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B161" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C161" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D161" t="s">
         <v>18</v>
@@ -8374,48 +8353,38 @@
         <v>1</v>
       </c>
       <c r="F161" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G161" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H161" t="n">
-        <v>7480</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>28</v>
-      </c>
-      <c r="J161" t="n">
-        <v>1997</v>
-      </c>
-      <c r="K161" t="n">
-        <v>2024</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J161"/>
+      <c r="K161"/>
       <c r="L161" t="b">
-        <v>1</v>
-      </c>
-      <c r="M161" t="n">
-        <v>108.014730240553</v>
-      </c>
-      <c r="N161" t="n">
-        <v>-2.56977402448673</v>
-      </c>
-      <c r="O161" t="n">
-        <v>0.0000000000837597629072917</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M161"/>
+      <c r="N161"/>
+      <c r="O161"/>
       <c r="P161" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B162" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C162" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D162" t="s">
         <v>18</v>
@@ -8424,48 +8393,48 @@
         <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G162" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="H162" t="n">
+        <v>3587</v>
+      </c>
+      <c r="I162" t="n">
+        <v>28</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1997</v>
+      </c>
+      <c r="K162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="L162" t="b">
+        <v>1</v>
+      </c>
+      <c r="M162" t="n">
+        <v>19.1499706613022</v>
+      </c>
+      <c r="N162" t="n">
+        <v>-0.316165778379042</v>
+      </c>
+      <c r="O162" t="n">
+        <v>0.0160054813216538</v>
+      </c>
+      <c r="P162" t="s">
         <v>21</v>
-      </c>
-      <c r="I162" t="n">
-        <v>13</v>
-      </c>
-      <c r="J162" t="n">
-        <v>2002</v>
-      </c>
-      <c r="K162" t="n">
-        <v>2023</v>
-      </c>
-      <c r="L162" t="b">
-        <v>1</v>
-      </c>
-      <c r="M162" t="n">
-        <v>18.4858461584204</v>
-      </c>
-      <c r="N162" t="n">
-        <v>-0.571076923111051</v>
-      </c>
-      <c r="O162" t="n">
-        <v>0.0671357480625598</v>
-      </c>
-      <c r="P162" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B163" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C163" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D163" t="s">
         <v>18</v>
@@ -8474,34 +8443,34 @@
         <v>1</v>
       </c>
       <c r="F163" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G163" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="H163" t="n">
-        <v>276</v>
+        <v>1902</v>
       </c>
       <c r="I163" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J163" t="n">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="K163" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L163" t="b">
         <v>1</v>
       </c>
       <c r="M163" t="n">
-        <v>11.0962305440613</v>
+        <v>10.2242875322034</v>
       </c>
       <c r="N163" t="n">
-        <v>0.0470731461696467</v>
+        <v>-0.0105453906843651</v>
       </c>
       <c r="O163" t="n">
-        <v>0.797863633509341</v>
+        <v>0.870075455176696</v>
       </c>
       <c r="P163" t="s">
         <v>23</v>
@@ -8509,49 +8478,49 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B164" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C164" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D164" t="s">
         <v>18</v>
       </c>
       <c r="E164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="G164" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H164" t="n">
-        <v>669</v>
+        <v>540</v>
       </c>
       <c r="I164" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J164" t="n">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="K164" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L164" t="b">
         <v>1</v>
       </c>
       <c r="M164" t="n">
-        <v>13.1028938794525</v>
+        <v>8.34583588573481</v>
       </c>
       <c r="N164" t="n">
-        <v>0.582577804963827</v>
+        <v>0.122351783460449</v>
       </c>
       <c r="O164" t="n">
-        <v>0.148528680210904</v>
+        <v>0.294839445823322</v>
       </c>
       <c r="P164" t="s">
         <v>23</v>
@@ -8559,13 +8528,13 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B165" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C165" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="D165" t="s">
         <v>18</v>
@@ -8574,130 +8543,142 @@
         <v>1</v>
       </c>
       <c r="F165" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G165" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="H165" t="n">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="I165" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J165" t="n">
-        <v>2006</v>
+        <v>1998</v>
       </c>
       <c r="K165" t="n">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="L165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M165"/>
       <c r="N165"/>
       <c r="O165"/>
       <c r="P165" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B166" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C166" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D166" t="s">
         <v>18</v>
       </c>
       <c r="E166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F166" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="G166" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="I166" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J166" t="n">
-        <v>2006</v>
+        <v>1997</v>
       </c>
       <c r="K166" t="n">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="L166" t="b">
-        <v>0</v>
-      </c>
-      <c r="M166"/>
-      <c r="N166"/>
-      <c r="O166"/>
+        <v>1</v>
+      </c>
+      <c r="M166" t="n">
+        <v>-9.22516513824099</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0.704825482924538</v>
+      </c>
+      <c r="O166" t="n">
+        <v>0.746731107226386</v>
+      </c>
       <c r="P166" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B167" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C167" t="s">
+        <v>31</v>
+      </c>
+      <c r="D167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1</v>
+      </c>
+      <c r="F167" t="s">
+        <v>51</v>
+      </c>
+      <c r="G167" t="s">
+        <v>52</v>
+      </c>
+      <c r="H167" t="n">
+        <v>2334</v>
+      </c>
+      <c r="I167" t="n">
         <v>28</v>
       </c>
-      <c r="D167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167" t="n">
-        <v>1</v>
-      </c>
-      <c r="F167" t="s">
-        <v>68</v>
-      </c>
-      <c r="G167" t="s">
-        <v>69</v>
-      </c>
-      <c r="H167" t="n">
-        <v>174</v>
-      </c>
-      <c r="I167" t="n">
-        <v>22</v>
-      </c>
       <c r="J167" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="K167" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L167" t="b">
         <v>1</v>
       </c>
-      <c r="M167"/>
-      <c r="N167"/>
-      <c r="O167"/>
+      <c r="M167" t="n">
+        <v>44.0732080683524</v>
+      </c>
+      <c r="N167" t="n">
+        <v>-1.05225252508132</v>
+      </c>
+      <c r="O167" t="n">
+        <v>0.0095643740255073</v>
+      </c>
       <c r="P167" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B168" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C168" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D168" t="s">
         <v>18</v>
@@ -8706,27 +8687,37 @@
         <v>1</v>
       </c>
       <c r="F168" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="G168" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>7480</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168"/>
-      <c r="K168"/>
+        <v>28</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1997</v>
+      </c>
+      <c r="K168" t="n">
+        <v>2024</v>
+      </c>
       <c r="L168" t="b">
-        <v>0</v>
-      </c>
-      <c r="M168"/>
-      <c r="N168"/>
-      <c r="O168"/>
+        <v>1</v>
+      </c>
+      <c r="M168" t="n">
+        <v>108.013733201528</v>
+      </c>
+      <c r="N168" t="n">
+        <v>-2.56973970312599</v>
+      </c>
+      <c r="O168" t="n">
+        <v>0.00000000008376340262188</v>
+      </c>
       <c r="P168" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="169">
@@ -8734,31 +8725,31 @@
         <v>34</v>
       </c>
       <c r="B169" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C169" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D169" t="s">
         <v>18</v>
       </c>
       <c r="E169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F169" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="G169" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="H169" t="n">
-        <v>304</v>
+        <v>21</v>
       </c>
       <c r="I169" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J169" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="K169" t="n">
         <v>2023</v>
@@ -8767,13 +8758,13 @@
         <v>1</v>
       </c>
       <c r="M169" t="n">
-        <v>18.2473433180605</v>
+        <v>18.4858461622144</v>
       </c>
       <c r="N169" t="n">
-        <v>0.526645547779234</v>
+        <v>-0.57107692313935</v>
       </c>
       <c r="O169" t="n">
-        <v>0.127179769275801</v>
+        <v>0.0671357481774192</v>
       </c>
       <c r="P169" t="s">
         <v>23</v>
@@ -8784,46 +8775,46 @@
         <v>34</v>
       </c>
       <c r="B170" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C170" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D170" t="s">
         <v>18</v>
       </c>
       <c r="E170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F170" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="G170" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="H170" t="n">
-        <v>718</v>
+        <v>289</v>
       </c>
       <c r="I170" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J170" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="K170" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L170" t="b">
         <v>1</v>
       </c>
       <c r="M170" t="n">
-        <v>9.20781360686887</v>
+        <v>12.12575641794</v>
       </c>
       <c r="N170" t="n">
-        <v>0.0844146355721602</v>
+        <v>-0.0149842466920076</v>
       </c>
       <c r="O170" t="n">
-        <v>0.540832422095002</v>
+        <v>0.931856627545226</v>
       </c>
       <c r="P170" t="s">
         <v>23</v>
@@ -8834,46 +8825,46 @@
         <v>34</v>
       </c>
       <c r="B171" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C171" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D171" t="s">
         <v>18</v>
       </c>
       <c r="E171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F171" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="G171" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="H171" t="n">
-        <v>1273</v>
+        <v>698</v>
       </c>
       <c r="I171" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J171" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="K171" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L171" t="b">
         <v>1</v>
       </c>
       <c r="M171" t="n">
-        <v>17.2656652184425</v>
+        <v>15.4432607125131</v>
       </c>
       <c r="N171" t="n">
-        <v>0.413011167448665</v>
+        <v>0.430165149041331</v>
       </c>
       <c r="O171" t="n">
-        <v>0.202372004987639</v>
+        <v>0.219275347947408</v>
       </c>
       <c r="P171" t="s">
         <v>23</v>
@@ -8881,134 +8872,122 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B172" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C172" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D172" t="s">
         <v>18</v>
       </c>
       <c r="E172" t="n">
+        <v>1</v>
+      </c>
+      <c r="F172" t="s">
+        <v>68</v>
+      </c>
+      <c r="G172" t="s">
+        <v>69</v>
+      </c>
+      <c r="H172" t="n">
+        <v>4</v>
+      </c>
+      <c r="I172" t="n">
         <v>2</v>
       </c>
-      <c r="F172" t="s">
-        <v>64</v>
-      </c>
-      <c r="G172" t="s">
-        <v>65</v>
-      </c>
-      <c r="H172" t="n">
-        <v>445</v>
-      </c>
-      <c r="I172" t="n">
-        <v>10</v>
-      </c>
       <c r="J172" t="n">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="K172" t="n">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="L172" t="b">
-        <v>1</v>
-      </c>
-      <c r="M172" t="n">
-        <v>1.34701519542428</v>
-      </c>
-      <c r="N172" t="n">
-        <v>-0.00875317504980054</v>
-      </c>
-      <c r="O172" t="n">
-        <v>0.956206034212386</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M172"/>
+      <c r="N172"/>
+      <c r="O172"/>
       <c r="P172" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B173" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C173" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D173" t="s">
         <v>18</v>
       </c>
       <c r="E173" t="n">
+        <v>2</v>
+      </c>
+      <c r="F173" t="s">
+        <v>101</v>
+      </c>
+      <c r="G173" t="s">
+        <v>102</v>
+      </c>
+      <c r="H173" t="n">
         <v>3</v>
       </c>
-      <c r="F173" t="s">
-        <v>104</v>
-      </c>
-      <c r="G173" t="s">
-        <v>105</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1013</v>
-      </c>
       <c r="I173" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J173" t="n">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="K173" t="n">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="L173" t="b">
-        <v>1</v>
-      </c>
-      <c r="M173" t="n">
-        <v>-52.9117593680881</v>
-      </c>
-      <c r="N173" t="n">
-        <v>2.82903202243051</v>
-      </c>
-      <c r="O173" t="n">
-        <v>0.0000013074556585606</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M173"/>
+      <c r="N173"/>
+      <c r="O173"/>
       <c r="P173" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B174" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C174" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D174" t="s">
         <v>18</v>
       </c>
       <c r="E174" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F174" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="G174" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="H174" t="n">
-        <v>6971</v>
+        <v>188</v>
       </c>
       <c r="I174" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J174" t="n">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="K174" t="n">
         <v>2024</v>
@@ -9016,53 +8995,43 @@
       <c r="L174" t="b">
         <v>1</v>
       </c>
-      <c r="M174" t="n">
-        <v>21.8312770057792</v>
-      </c>
-      <c r="N174" t="n">
-        <v>0.296416746011002</v>
-      </c>
-      <c r="O174" t="n">
-        <v>0.030757094012913</v>
-      </c>
+      <c r="M174"/>
+      <c r="N174"/>
+      <c r="O174"/>
       <c r="P174" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B175" t="s">
+        <v>107</v>
+      </c>
+      <c r="C175" t="s">
+        <v>30</v>
+      </c>
+      <c r="D175" t="s">
+        <v>18</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1</v>
+      </c>
+      <c r="F175" t="s">
         <v>103</v>
       </c>
-      <c r="C175" t="s">
-        <v>24</v>
-      </c>
-      <c r="D175" t="s">
-        <v>18</v>
-      </c>
-      <c r="E175" t="n">
-        <v>1</v>
-      </c>
-      <c r="F175" t="s">
-        <v>51</v>
-      </c>
       <c r="G175" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="H175" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>2</v>
-      </c>
-      <c r="J175" t="n">
-        <v>2021</v>
-      </c>
-      <c r="K175" t="n">
-        <v>2022</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J175"/>
+      <c r="K175"/>
       <c r="L175" t="b">
         <v>0</v>
       </c>
@@ -9075,13 +9044,13 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B176" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C176" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D176" t="s">
         <v>18</v>
@@ -9090,19 +9059,19 @@
         <v>2</v>
       </c>
       <c r="F176" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G176" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H176" t="n">
-        <v>3792</v>
+        <v>317</v>
       </c>
       <c r="I176" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J176" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="K176" t="n">
         <v>2024</v>
@@ -9110,22 +9079,28 @@
       <c r="L176" t="b">
         <v>1</v>
       </c>
-      <c r="M176"/>
-      <c r="N176"/>
-      <c r="O176"/>
+      <c r="M176" t="n">
+        <v>20.588524859885</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0.366270848891099</v>
+      </c>
+      <c r="O176" t="n">
+        <v>0.283296634236128</v>
+      </c>
       <c r="P176" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B177" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C177" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D177" t="s">
         <v>18</v>
@@ -9134,34 +9109,34 @@
         <v>2</v>
       </c>
       <c r="F177" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="G177" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="H177" t="n">
-        <v>702</v>
+        <v>746</v>
       </c>
       <c r="I177" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J177" t="n">
         <v>1998</v>
       </c>
       <c r="K177" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L177" t="b">
         <v>1</v>
       </c>
       <c r="M177" t="n">
-        <v>-20.1882932348755</v>
+        <v>8.90779448258092</v>
       </c>
       <c r="N177" t="n">
-        <v>1.13266211286726</v>
+        <v>0.106397105863102</v>
       </c>
       <c r="O177" t="n">
-        <v>0.380594923441125</v>
+        <v>0.459517983463199</v>
       </c>
       <c r="P177" t="s">
         <v>23</v>
@@ -9169,31 +9144,31 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B178" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C178" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D178" t="s">
         <v>18</v>
       </c>
       <c r="E178" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F178" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="G178" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="H178" t="n">
-        <v>4411</v>
+        <v>1333</v>
       </c>
       <c r="I178" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J178" t="n">
         <v>1998</v>
@@ -9205,13 +9180,13 @@
         <v>1</v>
       </c>
       <c r="M178" t="n">
-        <v>20.9573404818938</v>
+        <v>19.2737433657372</v>
       </c>
       <c r="N178" t="n">
-        <v>0.279399776006816</v>
+        <v>0.298326138204907</v>
       </c>
       <c r="O178" t="n">
-        <v>0.222767260382262</v>
+        <v>0.328421016947517</v>
       </c>
       <c r="P178" t="s">
         <v>23</v>
@@ -9222,46 +9197,46 @@
         <v>35</v>
       </c>
       <c r="B179" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C179" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D179" t="s">
         <v>18</v>
       </c>
       <c r="E179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F179" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="G179" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="H179" t="n">
-        <v>3925</v>
+        <v>445</v>
       </c>
       <c r="I179" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="J179" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="K179" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="L179" t="b">
         <v>1</v>
       </c>
       <c r="M179" t="n">
-        <v>40.3147830597386</v>
+        <v>1.3465451752785</v>
       </c>
       <c r="N179" t="n">
-        <v>-0.118757676075979</v>
+        <v>-0.0087296070060331</v>
       </c>
       <c r="O179" t="n">
-        <v>0.490415634494554</v>
+        <v>0.956323793332353</v>
       </c>
       <c r="P179" t="s">
         <v>23</v>
@@ -9272,49 +9247,49 @@
         <v>35</v>
       </c>
       <c r="B180" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C180" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D180" t="s">
         <v>18</v>
       </c>
       <c r="E180" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F180" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G180" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H180" t="n">
-        <v>2602</v>
+        <v>1022</v>
       </c>
       <c r="I180" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J180" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="K180" t="n">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="L180" t="b">
         <v>1</v>
       </c>
       <c r="M180" t="n">
-        <v>35.6054131087368</v>
+        <v>-49.5920796655998</v>
       </c>
       <c r="N180" t="n">
-        <v>0.419915861832162</v>
+        <v>2.66186726637865</v>
       </c>
       <c r="O180" t="n">
-        <v>0.574127916457357</v>
+        <v>0.00000239090453057941</v>
       </c>
       <c r="P180" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="181">
@@ -9322,46 +9297,46 @@
         <v>35</v>
       </c>
       <c r="B181" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C181" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D181" t="s">
         <v>18</v>
       </c>
       <c r="E181" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F181" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="G181" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="H181" t="n">
-        <v>519</v>
+        <v>7113</v>
       </c>
       <c r="I181" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J181" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="K181" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="L181" t="b">
         <v>1</v>
       </c>
       <c r="M181" t="n">
-        <v>-1.63664152807298</v>
+        <v>23.4170769887968</v>
       </c>
       <c r="N181" t="n">
-        <v>0.109312319468153</v>
+        <v>0.214241051756911</v>
       </c>
       <c r="O181" t="n">
-        <v>0.658167337462522</v>
+        <v>0.129962039390411</v>
       </c>
       <c r="P181" t="s">
         <v>23</v>
@@ -9369,13 +9344,13 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B182" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C182" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D182" t="s">
         <v>18</v>
@@ -9384,54 +9359,48 @@
         <v>1</v>
       </c>
       <c r="F182" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="G182" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="H182" t="n">
-        <v>222</v>
+        <v>8</v>
       </c>
       <c r="I182" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J182" t="n">
-        <v>1998</v>
+        <v>2021</v>
       </c>
       <c r="K182" t="n">
-        <v>2005</v>
+        <v>2022</v>
       </c>
       <c r="L182" t="b">
-        <v>1</v>
-      </c>
-      <c r="M182" t="n">
-        <v>33.6287757799675</v>
-      </c>
-      <c r="N182" t="n">
-        <v>-1.70911021650394</v>
-      </c>
-      <c r="O182" t="n">
-        <v>0.254578797276464</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M182"/>
+      <c r="N182"/>
+      <c r="O182"/>
       <c r="P182" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B183" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C183" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="D183" t="s">
         <v>18</v>
       </c>
       <c r="E183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F183" t="s">
         <v>111</v>
@@ -9440,78 +9409,72 @@
         <v>112</v>
       </c>
       <c r="H183" t="n">
-        <v>113</v>
+        <v>3935</v>
       </c>
       <c r="I183" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="J183" t="n">
         <v>1998</v>
       </c>
       <c r="K183" t="n">
-        <v>2005</v>
+        <v>2024</v>
       </c>
       <c r="L183" t="b">
         <v>1</v>
       </c>
-      <c r="M183" t="n">
-        <v>-0.444570606113302</v>
-      </c>
-      <c r="N183" t="n">
-        <v>0.0784255996505378</v>
-      </c>
-      <c r="O183" t="n">
-        <v>0.356267025885944</v>
-      </c>
+      <c r="M183"/>
+      <c r="N183"/>
+      <c r="O183"/>
       <c r="P183" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B184" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C184" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D184" t="s">
         <v>18</v>
       </c>
       <c r="E184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F184" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="G184" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="H184" t="n">
-        <v>222</v>
+        <v>719</v>
       </c>
       <c r="I184" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J184" t="n">
         <v>1998</v>
       </c>
       <c r="K184" t="n">
-        <v>2005</v>
+        <v>2024</v>
       </c>
       <c r="L184" t="b">
         <v>1</v>
       </c>
       <c r="M184" t="n">
-        <v>3.53048802574047</v>
+        <v>-20.7185464749576</v>
       </c>
       <c r="N184" t="n">
-        <v>-0.232327231971096</v>
+        <v>1.16038099050171</v>
       </c>
       <c r="O184" t="n">
-        <v>0.443714562365532</v>
+        <v>0.368350598684456</v>
       </c>
       <c r="P184" t="s">
         <v>23</v>
@@ -9519,10 +9482,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B185" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C185" t="s">
         <v>31</v>
@@ -9531,37 +9494,37 @@
         <v>18</v>
       </c>
       <c r="E185" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F185" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G185" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H185" t="n">
-        <v>221</v>
+        <v>4590</v>
       </c>
       <c r="I185" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="J185" t="n">
         <v>1998</v>
       </c>
       <c r="K185" t="n">
-        <v>2005</v>
+        <v>2024</v>
       </c>
       <c r="L185" t="b">
         <v>1</v>
       </c>
       <c r="M185" t="n">
-        <v>16.1047778987551</v>
+        <v>19.3045368009947</v>
       </c>
       <c r="N185" t="n">
-        <v>-1.134383358351</v>
+        <v>0.357128673128779</v>
       </c>
       <c r="O185" t="n">
-        <v>0.400100732447525</v>
+        <v>0.078279096280564</v>
       </c>
       <c r="P185" t="s">
         <v>23</v>
@@ -9569,10 +9532,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B186" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C186" t="s">
         <v>32</v>
@@ -9581,37 +9544,37 @@
         <v>18</v>
       </c>
       <c r="E186" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F186" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G186" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H186" t="n">
-        <v>222</v>
+        <v>4025</v>
       </c>
       <c r="I186" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="J186" t="n">
         <v>1998</v>
       </c>
       <c r="K186" t="n">
-        <v>2005</v>
+        <v>2024</v>
       </c>
       <c r="L186" t="b">
         <v>1</v>
       </c>
       <c r="M186" t="n">
-        <v>36.989833060932</v>
+        <v>41.8688979916643</v>
       </c>
       <c r="N186" t="n">
-        <v>-3.13812344697681</v>
+        <v>-0.195129154789458</v>
       </c>
       <c r="O186" t="n">
-        <v>0.0666781009740653</v>
+        <v>0.232466977105312</v>
       </c>
       <c r="P186" t="s">
         <v>23</v>
@@ -9619,13 +9582,13 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B187" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C187" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D187" t="s">
         <v>18</v>
@@ -9634,84 +9597,84 @@
         <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G187" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H187" t="n">
-        <v>220</v>
+        <v>2602</v>
       </c>
       <c r="I187" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J187" t="n">
-        <v>1998</v>
+        <v>2011</v>
       </c>
       <c r="K187" t="n">
-        <v>2005</v>
+        <v>2019</v>
       </c>
       <c r="L187" t="b">
         <v>1</v>
       </c>
       <c r="M187" t="n">
-        <v>68.3695373532543</v>
+        <v>35.6054197123911</v>
       </c>
       <c r="N187" t="n">
-        <v>-4.5209769210143</v>
+        <v>0.419915563194657</v>
       </c>
       <c r="O187" t="n">
-        <v>0.0166178594631983</v>
+        <v>0.574127622659356</v>
       </c>
       <c r="P187" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B188" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C188" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D188" t="s">
         <v>18</v>
       </c>
       <c r="E188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F188" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="G188" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="H188" t="n">
-        <v>222</v>
+        <v>519</v>
       </c>
       <c r="I188" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J188" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="K188" t="n">
-        <v>2005</v>
+        <v>2022</v>
       </c>
       <c r="L188" t="b">
         <v>1</v>
       </c>
       <c r="M188" t="n">
-        <v>33.628844130156</v>
+        <v>-1.6366623620019</v>
       </c>
       <c r="N188" t="n">
-        <v>-1.70911903356677</v>
+        <v>0.109313418689803</v>
       </c>
       <c r="O188" t="n">
-        <v>0.254608094783598</v>
+        <v>0.658163700860897</v>
       </c>
       <c r="P188" t="s">
         <v>23</v>
@@ -9719,13 +9682,13 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B189" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C189" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="D189" t="s">
         <v>18</v>
@@ -9734,13 +9697,13 @@
         <v>1</v>
       </c>
       <c r="F189" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G189" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H189" t="n">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="I189" t="n">
         <v>8</v>
@@ -9755,13 +9718,13 @@
         <v>1</v>
       </c>
       <c r="M189" t="n">
-        <v>-0.444563835030252</v>
+        <v>33.628723773395</v>
       </c>
       <c r="N189" t="n">
-        <v>0.0784245899511284</v>
+        <v>-1.70910436858776</v>
       </c>
       <c r="O189" t="n">
-        <v>0.356277788253982</v>
+        <v>0.254590618263364</v>
       </c>
       <c r="P189" t="s">
         <v>23</v>
@@ -9769,28 +9732,28 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B190" t="s">
+        <v>115</v>
+      </c>
+      <c r="C190" t="s">
+        <v>74</v>
+      </c>
+      <c r="D190" t="s">
+        <v>18</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1</v>
+      </c>
+      <c r="F190" t="s">
+        <v>116</v>
+      </c>
+      <c r="G190" t="s">
+        <v>117</v>
+      </c>
+      <c r="H190" t="n">
         <v>113</v>
-      </c>
-      <c r="C190" t="s">
-        <v>24</v>
-      </c>
-      <c r="D190" t="s">
-        <v>18</v>
-      </c>
-      <c r="E190" t="n">
-        <v>1</v>
-      </c>
-      <c r="F190" t="s">
-        <v>111</v>
-      </c>
-      <c r="G190" t="s">
-        <v>112</v>
-      </c>
-      <c r="H190" t="n">
-        <v>222</v>
       </c>
       <c r="I190" t="n">
         <v>8</v>
@@ -9805,13 +9768,13 @@
         <v>1</v>
       </c>
       <c r="M190" t="n">
-        <v>3.53048621394268</v>
+        <v>-0.44456113092958</v>
       </c>
       <c r="N190" t="n">
-        <v>-0.232327095621724</v>
+        <v>0.0784241882663684</v>
       </c>
       <c r="O190" t="n">
-        <v>0.443713812793805</v>
+        <v>0.356281826344633</v>
       </c>
       <c r="P190" t="s">
         <v>23</v>
@@ -9819,13 +9782,13 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B191" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C191" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D191" t="s">
         <v>18</v>
@@ -9834,13 +9797,13 @@
         <v>1</v>
       </c>
       <c r="F191" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G191" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H191" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I191" t="n">
         <v>8</v>
@@ -9855,13 +9818,13 @@
         <v>1</v>
       </c>
       <c r="M191" t="n">
-        <v>16.1047980212233</v>
+        <v>3.53048070193436</v>
       </c>
       <c r="N191" t="n">
-        <v>-1.1343868634311</v>
+        <v>-0.232326898201871</v>
       </c>
       <c r="O191" t="n">
-        <v>0.400088730043287</v>
+        <v>0.44371379125858</v>
       </c>
       <c r="P191" t="s">
         <v>23</v>
@@ -9869,13 +9832,13 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B192" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C192" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D192" t="s">
         <v>18</v>
@@ -9884,13 +9847,13 @@
         <v>1</v>
       </c>
       <c r="F192" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G192" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H192" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I192" t="n">
         <v>8</v>
@@ -9905,13 +9868,13 @@
         <v>1</v>
       </c>
       <c r="M192" t="n">
-        <v>36.9897733302039</v>
+        <v>16.1048036953012</v>
       </c>
       <c r="N192" t="n">
-        <v>-3.13811340102952</v>
+        <v>-1.13438778746813</v>
       </c>
       <c r="O192" t="n">
-        <v>0.0666613521433124</v>
+        <v>0.40008285596946</v>
       </c>
       <c r="P192" t="s">
         <v>23</v>
@@ -9919,13 +9882,13 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B193" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C193" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D193" t="s">
         <v>18</v>
@@ -9934,13 +9897,13 @@
         <v>1</v>
       </c>
       <c r="F193" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G193" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H193" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I193" t="n">
         <v>8</v>
@@ -9955,27 +9918,27 @@
         <v>1</v>
       </c>
       <c r="M193" t="n">
-        <v>68.3694828349352</v>
+        <v>36.9900137332185</v>
       </c>
       <c r="N193" t="n">
-        <v>-4.52097043004702</v>
+        <v>-3.13814583526341</v>
       </c>
       <c r="O193" t="n">
-        <v>0.0166197947760457</v>
+        <v>0.0666608562339737</v>
       </c>
       <c r="P193" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B194" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C194" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D194" t="s">
         <v>18</v>
@@ -9984,45 +9947,45 @@
         <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="G194" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="H194" t="n">
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="I194" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J194" t="n">
-        <v>2016</v>
+        <v>1998</v>
       </c>
       <c r="K194" t="n">
-        <v>2023</v>
+        <v>2005</v>
       </c>
       <c r="L194" t="b">
         <v>1</v>
       </c>
       <c r="M194" t="n">
-        <v>84.4240525929707</v>
+        <v>68.369484917475</v>
       </c>
       <c r="N194" t="n">
-        <v>-2.62425693324902</v>
+        <v>-4.52097026315786</v>
       </c>
       <c r="O194" t="n">
-        <v>0.0740357901071176</v>
+        <v>0.0166182622893285</v>
       </c>
       <c r="P194" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B195" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C195" t="s">
         <v>22</v>
@@ -10031,37 +9994,37 @@
         <v>18</v>
       </c>
       <c r="E195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G195" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H195" t="n">
-        <v>460</v>
+        <v>222</v>
       </c>
       <c r="I195" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J195" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="K195" t="n">
-        <v>2023</v>
+        <v>2005</v>
       </c>
       <c r="L195" t="b">
         <v>1</v>
       </c>
       <c r="M195" t="n">
-        <v>11.9869804005955</v>
+        <v>33.6286514164965</v>
       </c>
       <c r="N195" t="n">
-        <v>0.270528719596189</v>
+        <v>-1.70909712972767</v>
       </c>
       <c r="O195" t="n">
-        <v>0.485492239588718</v>
+        <v>0.254620455536205</v>
       </c>
       <c r="P195" t="s">
         <v>23</v>
@@ -10069,13 +10032,13 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B196" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C196" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="D196" t="s">
         <v>18</v>
@@ -10084,78 +10047,84 @@
         <v>1</v>
       </c>
       <c r="F196" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="H196" t="n">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="I196" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J196" t="n">
-        <v>2016</v>
+        <v>1998</v>
       </c>
       <c r="K196" t="n">
-        <v>2023</v>
+        <v>2005</v>
       </c>
       <c r="L196" t="b">
         <v>1</v>
       </c>
-      <c r="M196"/>
-      <c r="N196"/>
-      <c r="O196"/>
+      <c r="M196" t="n">
+        <v>-0.444559760659897</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0.0784239357792856</v>
+      </c>
+      <c r="O196" t="n">
+        <v>0.356289780424534</v>
+      </c>
       <c r="P196" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B197" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C197" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D197" t="s">
         <v>18</v>
       </c>
       <c r="E197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F197" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G197" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H197" t="n">
-        <v>432</v>
+        <v>222</v>
       </c>
       <c r="I197" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J197" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="K197" t="n">
-        <v>2023</v>
+        <v>2005</v>
       </c>
       <c r="L197" t="b">
         <v>1</v>
       </c>
       <c r="M197" t="n">
-        <v>4.17290189953575</v>
+        <v>3.53048964166756</v>
       </c>
       <c r="N197" t="n">
-        <v>-0.151398517909744</v>
+        <v>-0.232327351261614</v>
       </c>
       <c r="O197" t="n">
-        <v>0.81958861886694</v>
+        <v>0.443714818400394</v>
       </c>
       <c r="P197" t="s">
         <v>23</v>
@@ -10163,49 +10132,49 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B198" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C198" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D198" t="s">
         <v>18</v>
       </c>
       <c r="E198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F198" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G198" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H198" t="n">
-        <v>841</v>
+        <v>221</v>
       </c>
       <c r="I198" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J198" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="K198" t="n">
-        <v>2023</v>
+        <v>2005</v>
       </c>
       <c r="L198" t="b">
         <v>1</v>
       </c>
       <c r="M198" t="n">
-        <v>27.0389721308422</v>
+        <v>16.104786187905</v>
       </c>
       <c r="N198" t="n">
-        <v>1.06249128763984</v>
+        <v>-1.13438480926907</v>
       </c>
       <c r="O198" t="n">
-        <v>0.131535961470581</v>
+        <v>0.400089904762928</v>
       </c>
       <c r="P198" t="s">
         <v>23</v>
@@ -10213,13 +10182,13 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B199" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C199" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D199" t="s">
         <v>18</v>
@@ -10228,34 +10197,34 @@
         <v>1</v>
       </c>
       <c r="F199" t="s">
+        <v>116</v>
+      </c>
+      <c r="G199" t="s">
         <v>117</v>
       </c>
-      <c r="G199" t="s">
-        <v>118</v>
-      </c>
       <c r="H199" t="n">
-        <v>413</v>
+        <v>222</v>
       </c>
       <c r="I199" t="n">
         <v>8</v>
       </c>
       <c r="J199" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="K199" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="L199" t="b">
         <v>1</v>
       </c>
       <c r="M199" t="n">
-        <v>88.1359321457827</v>
+        <v>36.9899401290369</v>
       </c>
       <c r="N199" t="n">
-        <v>-1.52268347944976</v>
+        <v>-3.13813606811501</v>
       </c>
       <c r="O199" t="n">
-        <v>0.150223160603143</v>
+        <v>0.0666627263574941</v>
       </c>
       <c r="P199" t="s">
         <v>23</v>
@@ -10263,13 +10232,13 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B200" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C200" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D200" t="s">
         <v>18</v>
@@ -10278,48 +10247,48 @@
         <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="H200" t="n">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="I200" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J200" t="n">
-        <v>2006</v>
+        <v>1998</v>
       </c>
       <c r="K200" t="n">
-        <v>2023</v>
+        <v>2005</v>
       </c>
       <c r="L200" t="b">
         <v>1</v>
       </c>
       <c r="M200" t="n">
-        <v>9.61203743135621</v>
+        <v>68.3694284976308</v>
       </c>
       <c r="N200" t="n">
-        <v>0.083801251505233</v>
+        <v>-4.52096298854313</v>
       </c>
       <c r="O200" t="n">
-        <v>0.831389753865606</v>
+        <v>0.0166183943820369</v>
       </c>
       <c r="P200" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B201" t="s">
         <v>119</v>
       </c>
       <c r="C201" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D201" t="s">
         <v>18</v>
@@ -10334,13 +10303,13 @@
         <v>37</v>
       </c>
       <c r="H201" t="n">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="I201" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J201" t="n">
-        <v>2005</v>
+        <v>2016</v>
       </c>
       <c r="K201" t="n">
         <v>2023</v>
@@ -10349,13 +10318,13 @@
         <v>1</v>
       </c>
       <c r="M201" t="n">
-        <v>48.4483227965307</v>
+        <v>84.4240519069693</v>
       </c>
       <c r="N201" t="n">
-        <v>-0.491452101473701</v>
+        <v>-2.62425690745865</v>
       </c>
       <c r="O201" t="n">
-        <v>0.503221346939231</v>
+        <v>0.0740357829782734</v>
       </c>
       <c r="P201" t="s">
         <v>23</v>
@@ -10363,57 +10332,63 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B202" t="s">
         <v>119</v>
       </c>
       <c r="C202" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D202" t="s">
         <v>18</v>
       </c>
       <c r="E202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F202" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="G202" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="H202" t="n">
-        <v>21</v>
+        <v>460</v>
       </c>
       <c r="I202" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J202" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="K202" t="n">
         <v>2023</v>
       </c>
       <c r="L202" t="b">
-        <v>0</v>
-      </c>
-      <c r="M202"/>
-      <c r="N202"/>
-      <c r="O202"/>
+        <v>1</v>
+      </c>
+      <c r="M202" t="n">
+        <v>11.9869803982023</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0.27052871967714</v>
+      </c>
+      <c r="O202" t="n">
+        <v>0.485492239784015</v>
+      </c>
       <c r="P202" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B203" t="s">
         <v>119</v>
       </c>
       <c r="C203" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D203" t="s">
         <v>18</v>
@@ -10428,13 +10403,13 @@
         <v>37</v>
       </c>
       <c r="H203" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="I203" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J203" t="n">
-        <v>2005</v>
+        <v>2016</v>
       </c>
       <c r="K203" t="n">
         <v>2023</v>
@@ -10442,49 +10417,43 @@
       <c r="L203" t="b">
         <v>1</v>
       </c>
-      <c r="M203" t="n">
-        <v>54.1971893664919</v>
-      </c>
-      <c r="N203" t="n">
-        <v>-0.898590661613937</v>
-      </c>
-      <c r="O203" t="n">
-        <v>0.256693517861474</v>
-      </c>
+      <c r="M203"/>
+      <c r="N203"/>
+      <c r="O203"/>
       <c r="P203" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B204" t="s">
         <v>119</v>
       </c>
       <c r="C204" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D204" t="s">
         <v>18</v>
       </c>
       <c r="E204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F204" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="G204" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="H204" t="n">
-        <v>865</v>
+        <v>432</v>
       </c>
       <c r="I204" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J204" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="K204" t="n">
         <v>2023</v>
@@ -10493,13 +10462,13 @@
         <v>1</v>
       </c>
       <c r="M204" t="n">
-        <v>62.3803683758874</v>
+        <v>4.17278690398094</v>
       </c>
       <c r="N204" t="n">
-        <v>-0.142093117357641</v>
+        <v>-0.151389667982695</v>
       </c>
       <c r="O204" t="n">
-        <v>0.687476157395656</v>
+        <v>0.819593974777737</v>
       </c>
       <c r="P204" t="s">
         <v>23</v>
@@ -10507,49 +10476,49 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B205" t="s">
+        <v>119</v>
+      </c>
+      <c r="C205" t="s">
+        <v>32</v>
+      </c>
+      <c r="D205" t="s">
+        <v>18</v>
+      </c>
+      <c r="E205" t="n">
+        <v>2</v>
+      </c>
+      <c r="F205" t="s">
         <v>120</v>
       </c>
-      <c r="C205" t="s">
-        <v>17</v>
-      </c>
-      <c r="D205" t="s">
-        <v>18</v>
-      </c>
-      <c r="E205" t="n">
-        <v>1</v>
-      </c>
-      <c r="F205" t="s">
-        <v>51</v>
-      </c>
       <c r="G205" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="H205" t="n">
-        <v>1200</v>
+        <v>841</v>
       </c>
       <c r="I205" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J205" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="K205" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="L205" t="b">
         <v>1</v>
       </c>
       <c r="M205" t="n">
-        <v>17.6000324086398</v>
+        <v>27.0389698918424</v>
       </c>
       <c r="N205" t="n">
-        <v>-0.177237750670174</v>
+        <v>1.06249137834728</v>
       </c>
       <c r="O205" t="n">
-        <v>0.214527791747208</v>
+        <v>0.131535963264703</v>
       </c>
       <c r="P205" t="s">
         <v>23</v>
@@ -10557,13 +10526,13 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B206" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C206" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D206" t="s">
         <v>18</v>
@@ -10572,34 +10541,34 @@
         <v>1</v>
       </c>
       <c r="F206" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="G206" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="H206" t="n">
-        <v>1488</v>
+        <v>413</v>
       </c>
       <c r="I206" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J206" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="K206" t="n">
-        <v>2024</v>
+        <v>2007</v>
       </c>
       <c r="L206" t="b">
         <v>1</v>
       </c>
       <c r="M206" t="n">
-        <v>24.3154629849416</v>
+        <v>88.1358699273268</v>
       </c>
       <c r="N206" t="n">
-        <v>-0.107834394735686</v>
+        <v>-1.52267574045742</v>
       </c>
       <c r="O206" t="n">
-        <v>0.554320609923393</v>
+        <v>0.15021973127204</v>
       </c>
       <c r="P206" t="s">
         <v>23</v>
@@ -10607,13 +10576,13 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B207" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C207" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D207" t="s">
         <v>18</v>
@@ -10622,34 +10591,34 @@
         <v>1</v>
       </c>
       <c r="F207" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G207" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H207" t="n">
-        <v>468</v>
+        <v>243</v>
       </c>
       <c r="I207" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J207" t="n">
-        <v>1997</v>
+        <v>2006</v>
       </c>
       <c r="K207" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="L207" t="b">
         <v>1</v>
       </c>
       <c r="M207" t="n">
-        <v>63.8845914773122</v>
+        <v>9.61203743636063</v>
       </c>
       <c r="N207" t="n">
-        <v>-1.756230414883</v>
+        <v>0.0838012513185918</v>
       </c>
       <c r="O207" t="n">
-        <v>0.0916255144072397</v>
+        <v>0.831389754186489</v>
       </c>
       <c r="P207" t="s">
         <v>23</v>
@@ -10657,13 +10626,13 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B208" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C208" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D208" t="s">
         <v>18</v>
@@ -10672,42 +10641,48 @@
         <v>1</v>
       </c>
       <c r="F208" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G208" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H208" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I208" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J208" t="n">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="K208" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="L208" t="b">
         <v>1</v>
       </c>
-      <c r="M208"/>
-      <c r="N208"/>
-      <c r="O208"/>
+      <c r="M208" t="n">
+        <v>48.4483227974256</v>
+      </c>
+      <c r="N208" t="n">
+        <v>-0.491452101443074</v>
+      </c>
+      <c r="O208" t="n">
+        <v>0.503221346965114</v>
+      </c>
       <c r="P208" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B209" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C209" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D209" t="s">
         <v>18</v>
@@ -10716,45 +10691,39 @@
         <v>1</v>
       </c>
       <c r="F209" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G209" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H209" t="n">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="I209" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J209" t="n">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="K209" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="L209" t="b">
-        <v>1</v>
-      </c>
-      <c r="M209" t="n">
-        <v>23.3866454027794</v>
-      </c>
-      <c r="N209" t="n">
-        <v>-0.133993639774481</v>
-      </c>
-      <c r="O209" t="n">
-        <v>0.724482761673577</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M209"/>
+      <c r="N209"/>
+      <c r="O209"/>
       <c r="P209" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B210" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C210" t="s">
         <v>31</v>
@@ -10766,34 +10735,34 @@
         <v>1</v>
       </c>
       <c r="F210" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G210" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H210" t="n">
-        <v>722</v>
+        <v>90</v>
       </c>
       <c r="I210" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="J210" t="n">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="K210" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="L210" t="b">
         <v>1</v>
       </c>
       <c r="M210" t="n">
-        <v>17.2242004763788</v>
+        <v>54.1977529427332</v>
       </c>
       <c r="N210" t="n">
-        <v>-0.0625775302178686</v>
+        <v>-0.898615908276998</v>
       </c>
       <c r="O210" t="n">
-        <v>0.744513990778776</v>
+        <v>0.25668244223902</v>
       </c>
       <c r="P210" t="s">
         <v>23</v>
@@ -10801,10 +10770,10 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B211" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C211" t="s">
         <v>32</v>
@@ -10816,34 +10785,34 @@
         <v>1</v>
       </c>
       <c r="F211" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G211" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H211" t="n">
-        <v>3169</v>
+        <v>865</v>
       </c>
       <c r="I211" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="J211" t="n">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="K211" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="L211" t="b">
         <v>1</v>
       </c>
       <c r="M211" t="n">
-        <v>34.9836008250607</v>
+        <v>62.380384729702</v>
       </c>
       <c r="N211" t="n">
-        <v>-0.111791711877384</v>
+        <v>-0.142093645741606</v>
       </c>
       <c r="O211" t="n">
-        <v>0.468476639281231</v>
+        <v>0.687476149885152</v>
       </c>
       <c r="P211" t="s">
         <v>23</v>
@@ -10851,10 +10820,10 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B212" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C212" t="s">
         <v>17</v>
@@ -10866,39 +10835,45 @@
         <v>1</v>
       </c>
       <c r="F212" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G212" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H212" t="n">
-        <v>13</v>
+        <v>1200</v>
       </c>
       <c r="I212" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="J212" t="n">
-        <v>2018</v>
+        <v>1997</v>
       </c>
       <c r="K212" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="L212" t="b">
-        <v>0</v>
-      </c>
-      <c r="M212"/>
-      <c r="N212"/>
-      <c r="O212"/>
+        <v>1</v>
+      </c>
+      <c r="M212" t="n">
+        <v>17.6001377016579</v>
+      </c>
+      <c r="N212" t="n">
+        <v>-0.177242116605302</v>
+      </c>
+      <c r="O212" t="n">
+        <v>0.214505464474497</v>
+      </c>
       <c r="P212" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B213" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C213" t="s">
         <v>22</v>
@@ -10910,48 +10885,48 @@
         <v>1</v>
       </c>
       <c r="F213" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G213" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H213" t="n">
-        <v>731</v>
+        <v>1488</v>
       </c>
       <c r="I213" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J213" t="n">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="K213" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L213" t="b">
         <v>1</v>
       </c>
       <c r="M213" t="n">
-        <v>25.3634545070029</v>
+        <v>24.3152173700395</v>
       </c>
       <c r="N213" t="n">
-        <v>0.888554138813603</v>
+        <v>-0.107824398497227</v>
       </c>
       <c r="O213" t="n">
-        <v>0.0033753950342707</v>
+        <v>0.554386983760942</v>
       </c>
       <c r="P213" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B214" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C214" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D214" t="s">
         <v>18</v>
@@ -10960,42 +10935,48 @@
         <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G214" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H214" t="n">
-        <v>976</v>
+        <v>468</v>
       </c>
       <c r="I214" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J214" t="n">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="K214" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L214" t="b">
         <v>1</v>
       </c>
-      <c r="M214"/>
-      <c r="N214"/>
-      <c r="O214"/>
+      <c r="M214" t="n">
+        <v>63.8891206981744</v>
+      </c>
+      <c r="N214" t="n">
+        <v>-1.75638883870463</v>
+      </c>
+      <c r="O214" t="n">
+        <v>0.0916263907051741</v>
+      </c>
       <c r="P214" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B215" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C215" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D215" t="s">
         <v>18</v>
@@ -11004,42 +10985,42 @@
         <v>1</v>
       </c>
       <c r="F215" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G215" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="I215" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J215" t="n">
-        <v>2016</v>
+        <v>1997</v>
       </c>
       <c r="K215" t="n">
         <v>2021</v>
       </c>
       <c r="L215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M215"/>
       <c r="N215"/>
       <c r="O215"/>
       <c r="P215" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B216" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C216" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D216" t="s">
         <v>18</v>
@@ -11048,34 +11029,34 @@
         <v>1</v>
       </c>
       <c r="F216" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G216" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H216" t="n">
-        <v>559</v>
+        <v>142</v>
       </c>
       <c r="I216" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J216" t="n">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="K216" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L216" t="b">
         <v>1</v>
       </c>
       <c r="M216" t="n">
-        <v>36.5374750333899</v>
+        <v>23.3867558483777</v>
       </c>
       <c r="N216" t="n">
-        <v>0.141924957308229</v>
+        <v>-0.134009146040018</v>
       </c>
       <c r="O216" t="n">
-        <v>0.708114476390118</v>
+        <v>0.724458235015615</v>
       </c>
       <c r="P216" t="s">
         <v>23</v>
@@ -11083,13 +11064,13 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B217" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C217" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D217" t="s">
         <v>18</v>
@@ -11098,34 +11079,34 @@
         <v>1</v>
       </c>
       <c r="F217" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G217" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H217" t="n">
-        <v>1684</v>
+        <v>722</v>
       </c>
       <c r="I217" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J217" t="n">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="K217" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L217" t="b">
         <v>1</v>
       </c>
       <c r="M217" t="n">
-        <v>33.7946272452919</v>
+        <v>17.2241548079113</v>
       </c>
       <c r="N217" t="n">
-        <v>0.282382323914653</v>
+        <v>-0.0625766221763471</v>
       </c>
       <c r="O217" t="n">
-        <v>0.391636122002955</v>
+        <v>0.744519670631815</v>
       </c>
       <c r="P217" t="s">
         <v>23</v>
@@ -11133,45 +11114,377 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
+        <v>43</v>
+      </c>
+      <c r="B218" t="s">
+        <v>125</v>
+      </c>
+      <c r="C218" t="s">
+        <v>32</v>
+      </c>
+      <c r="D218" t="s">
+        <v>18</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1</v>
+      </c>
+      <c r="F218" t="s">
+        <v>51</v>
+      </c>
+      <c r="G218" t="s">
+        <v>52</v>
+      </c>
+      <c r="H218" t="n">
+        <v>3169</v>
+      </c>
+      <c r="I218" t="n">
+        <v>28</v>
+      </c>
+      <c r="J218" t="n">
+        <v>1997</v>
+      </c>
+      <c r="K218" t="n">
+        <v>2024</v>
+      </c>
+      <c r="L218" t="b">
+        <v>1</v>
+      </c>
+      <c r="M218" t="n">
+        <v>34.9835958039344</v>
+      </c>
+      <c r="N218" t="n">
+        <v>-0.111791462313524</v>
+      </c>
+      <c r="O218" t="n">
+        <v>0.468477051061486</v>
+      </c>
+      <c r="P218" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
         <v>44</v>
       </c>
-      <c r="B218" t="s">
-        <v>121</v>
-      </c>
-      <c r="C218" t="s">
+      <c r="B219" t="s">
+        <v>126</v>
+      </c>
+      <c r="C219" t="s">
+        <v>17</v>
+      </c>
+      <c r="D219" t="s">
+        <v>18</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1</v>
+      </c>
+      <c r="F219" t="s">
+        <v>62</v>
+      </c>
+      <c r="G219" t="s">
+        <v>63</v>
+      </c>
+      <c r="H219" t="n">
+        <v>16</v>
+      </c>
+      <c r="I219" t="n">
+        <v>4</v>
+      </c>
+      <c r="J219" t="n">
+        <v>2018</v>
+      </c>
+      <c r="K219" t="n">
+        <v>2024</v>
+      </c>
+      <c r="L219" t="b">
+        <v>0</v>
+      </c>
+      <c r="M219"/>
+      <c r="N219"/>
+      <c r="O219"/>
+      <c r="P219" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>44</v>
+      </c>
+      <c r="B220" t="s">
+        <v>126</v>
+      </c>
+      <c r="C220" t="s">
+        <v>22</v>
+      </c>
+      <c r="D220" t="s">
+        <v>18</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1</v>
+      </c>
+      <c r="F220" t="s">
+        <v>62</v>
+      </c>
+      <c r="G220" t="s">
+        <v>63</v>
+      </c>
+      <c r="H220" t="n">
+        <v>743</v>
+      </c>
+      <c r="I220" t="n">
+        <v>26</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1999</v>
+      </c>
+      <c r="K220" t="n">
+        <v>2024</v>
+      </c>
+      <c r="L220" t="b">
+        <v>1</v>
+      </c>
+      <c r="M220" t="n">
+        <v>25.7351476699093</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0.862848997722571</v>
+      </c>
+      <c r="O220" t="n">
+        <v>0.0041757479179363</v>
+      </c>
+      <c r="P220" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>44</v>
+      </c>
+      <c r="B221" t="s">
+        <v>126</v>
+      </c>
+      <c r="C221" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>18</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1</v>
+      </c>
+      <c r="F221" t="s">
+        <v>62</v>
+      </c>
+      <c r="G221" t="s">
+        <v>63</v>
+      </c>
+      <c r="H221" t="n">
+        <v>987</v>
+      </c>
+      <c r="I221" t="n">
+        <v>26</v>
+      </c>
+      <c r="J221" t="n">
+        <v>1999</v>
+      </c>
+      <c r="K221" t="n">
+        <v>2024</v>
+      </c>
+      <c r="L221" t="b">
+        <v>1</v>
+      </c>
+      <c r="M221"/>
+      <c r="N221"/>
+      <c r="O221"/>
+      <c r="P221" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>44</v>
+      </c>
+      <c r="B222" t="s">
+        <v>126</v>
+      </c>
+      <c r="C222" t="s">
+        <v>30</v>
+      </c>
+      <c r="D222" t="s">
+        <v>18</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1</v>
+      </c>
+      <c r="F222" t="s">
+        <v>62</v>
+      </c>
+      <c r="G222" t="s">
+        <v>63</v>
+      </c>
+      <c r="H222" t="n">
+        <v>2</v>
+      </c>
+      <c r="I222" t="n">
+        <v>2</v>
+      </c>
+      <c r="J222" t="n">
+        <v>2016</v>
+      </c>
+      <c r="K222" t="n">
+        <v>2021</v>
+      </c>
+      <c r="L222" t="b">
+        <v>0</v>
+      </c>
+      <c r="M222"/>
+      <c r="N222"/>
+      <c r="O222"/>
+      <c r="P222" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>44</v>
+      </c>
+      <c r="B223" t="s">
+        <v>126</v>
+      </c>
+      <c r="C223" t="s">
+        <v>31</v>
+      </c>
+      <c r="D223" t="s">
+        <v>18</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1</v>
+      </c>
+      <c r="F223" t="s">
+        <v>62</v>
+      </c>
+      <c r="G223" t="s">
+        <v>63</v>
+      </c>
+      <c r="H223" t="n">
+        <v>559</v>
+      </c>
+      <c r="I223" t="n">
+        <v>25</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1999</v>
+      </c>
+      <c r="K223" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L223" t="b">
+        <v>1</v>
+      </c>
+      <c r="M223" t="n">
+        <v>36.5374750333897</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0.141924957308237</v>
+      </c>
+      <c r="O223" t="n">
+        <v>0.708114476390104</v>
+      </c>
+      <c r="P223" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>44</v>
+      </c>
+      <c r="B224" t="s">
+        <v>126</v>
+      </c>
+      <c r="C224" t="s">
+        <v>32</v>
+      </c>
+      <c r="D224" t="s">
+        <v>18</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1</v>
+      </c>
+      <c r="F224" t="s">
+        <v>62</v>
+      </c>
+      <c r="G224" t="s">
+        <v>63</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1707</v>
+      </c>
+      <c r="I224" t="n">
+        <v>26</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1999</v>
+      </c>
+      <c r="K224" t="n">
+        <v>2024</v>
+      </c>
+      <c r="L224" t="b">
+        <v>1</v>
+      </c>
+      <c r="M224" t="n">
+        <v>34.4313177493422</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0.22966300140264</v>
+      </c>
+      <c r="O224" t="n">
+        <v>0.446908276330284</v>
+      </c>
+      <c r="P224" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>44</v>
+      </c>
+      <c r="B225" t="s">
+        <v>126</v>
+      </c>
+      <c r="C225" t="s">
         <v>66</v>
       </c>
-      <c r="D218" t="s">
-        <v>18</v>
-      </c>
-      <c r="E218" t="n">
-        <v>1</v>
-      </c>
-      <c r="F218" t="s">
+      <c r="D225" t="s">
+        <v>18</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1</v>
+      </c>
+      <c r="F225" t="s">
         <v>62</v>
       </c>
-      <c r="G218" t="s">
+      <c r="G225" t="s">
         <v>63</v>
       </c>
-      <c r="H218" t="n">
+      <c r="H225" t="n">
         <v>3</v>
       </c>
-      <c r="I218" t="n">
+      <c r="I225" t="n">
         <v>3</v>
       </c>
-      <c r="J218" t="n">
+      <c r="J225" t="n">
         <v>2016</v>
       </c>
-      <c r="K218" t="n">
+      <c r="K225" t="n">
         <v>2021</v>
       </c>
-      <c r="L218" t="b">
+      <c r="L225" t="b">
         <v>0</v>
       </c>
-      <c r="M218"/>
-      <c r="N218"/>
-      <c r="O218"/>
-      <c r="P218" t="s">
+      <c r="M225"/>
+      <c r="N225"/>
+      <c r="O225"/>
+      <c r="P225" t="s">
         <v>27</v>
       </c>
     </row>
